--- a/data/hotels_by_city/Dallas/Dallas_shard_600.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_600.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="196">
   <si>
     <t>STR#</t>
   </si>
@@ -145,6 +145,485 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/15/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d296530-r441201632-Nite_Star_Inn_Suites-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>30183</t>
+  </si>
+  <si>
+    <t>296530</t>
+  </si>
+  <si>
+    <t>441201632</t>
+  </si>
+  <si>
+    <t>11/30/2016</t>
+  </si>
+  <si>
+    <t>RUN!</t>
+  </si>
+  <si>
+    <t>Do NOT give them your credit card information. I reserves rooms and on their website, it read that they we could pay when we arrived. Prior to our arrival, I was not aware that they had already ran my credit card information causing a mess at my bank. So even if you call prior to arrival to make sure they don't do this, they will! The rooms were nasty, roaches and very unprofessional to what it reads on the website!</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d296530-r428566166-Nite_Star_Inn_Suites-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>428566166</t>
+  </si>
+  <si>
+    <t>10/16/2016</t>
+  </si>
+  <si>
+    <t>Nothing like the pictures online</t>
+  </si>
+  <si>
+    <t>This place was absolutely the worst place we've ever stayed at! The pictures online were inaccurate. Talk about false advertising! If it hadn't been for the fact that every hotel in Arlington was booked due to the game, we would've gone somewhere else. The lighting fixtures were so disgusting that I took a washcloth to one and did a couple quick swipes and it was yellow/brown with what looked like nicotine stains. The rest of the room was dark and extremely dirty as well! Do not stay here!</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d296530-r401115382-Nite_Star_Inn_Suites-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>401115382</t>
+  </si>
+  <si>
+    <t>08/03/2016</t>
+  </si>
+  <si>
+    <t>Don't bother with this place.</t>
+  </si>
+  <si>
+    <t>I booked 2 nights through a travel site. Check in was easy and girl was very nice. They took made a photocopy of my DL and CC like most hotels do at checkin.  However, after I got home I noticed a $81.64 charge on my CC.  I called the hotel and she saw where the mistake was made, but had to wait for a manager to fix it the next day and I was to receive a call.  I ended up calling them back at 3:00pm.  This time I'm told by one of the managers that she does not see any charge on my CC.  I offered to text a copy to her, but she would not give me a phone number to do so.  She said I needed to fax it.  As though I have a fax machine. I'm now just going to let my CC company deal with this.  As far as the room goes the shower made so much noise and vibrated through the wall. I actually made the screw on the hot water handle fall off.  The bed had no top sheet after I took the comforter off the bed.  Called the front desk but the were fresh out of sheets! Got one from the maid the next day. Also on Friday night they had a "Glow Party" for 18yrs and over until 2:00am. There was screaming, yelling, burning rubber in the parking lot.  I was...I booked 2 nights through a travel site. Check in was easy and girl was very nice. They took made a photocopy of my DL and CC like most hotels do at checkin.  However, after I got home I noticed a $81.64 charge on my CC.  I called the hotel and she saw where the mistake was made, but had to wait for a manager to fix it the next day and I was to receive a call.  I ended up calling them back at 3:00pm.  This time I'm told by one of the managers that she does not see any charge on my CC.  I offered to text a copy to her, but she would not give me a phone number to do so.  She said I needed to fax it.  As though I have a fax machine. I'm now just going to let my CC company deal with this.  As far as the room goes the shower made so much noise and vibrated through the wall. I actually made the screw on the hot water handle fall off.  The bed had no top sheet after I took the comforter off the bed.  Called the front desk but the were fresh out of sheets! Got one from the maid the next day. Also on Friday night they had a "Glow Party" for 18yrs and over until 2:00am. There was screaming, yelling, burning rubber in the parking lot.  I was very concerned for my rental car.  But all was fine with it the next morning. The parking lot was packed and hotel guest could not even park at the hotel.  I probably would have not written a review had it not been the CC situation.  People need to now that this place is not legit.  Go someplace else!MoreShow less</t>
+  </si>
+  <si>
+    <t>I booked 2 nights through a travel site. Check in was easy and girl was very nice. They took made a photocopy of my DL and CC like most hotels do at checkin.  However, after I got home I noticed a $81.64 charge on my CC.  I called the hotel and she saw where the mistake was made, but had to wait for a manager to fix it the next day and I was to receive a call.  I ended up calling them back at 3:00pm.  This time I'm told by one of the managers that she does not see any charge on my CC.  I offered to text a copy to her, but she would not give me a phone number to do so.  She said I needed to fax it.  As though I have a fax machine. I'm now just going to let my CC company deal with this.  As far as the room goes the shower made so much noise and vibrated through the wall. I actually made the screw on the hot water handle fall off.  The bed had no top sheet after I took the comforter off the bed.  Called the front desk but the were fresh out of sheets! Got one from the maid the next day. Also on Friday night they had a "Glow Party" for 18yrs and over until 2:00am. There was screaming, yelling, burning rubber in the parking lot.  I was...I booked 2 nights through a travel site. Check in was easy and girl was very nice. They took made a photocopy of my DL and CC like most hotels do at checkin.  However, after I got home I noticed a $81.64 charge on my CC.  I called the hotel and she saw where the mistake was made, but had to wait for a manager to fix it the next day and I was to receive a call.  I ended up calling them back at 3:00pm.  This time I'm told by one of the managers that she does not see any charge on my CC.  I offered to text a copy to her, but she would not give me a phone number to do so.  She said I needed to fax it.  As though I have a fax machine. I'm now just going to let my CC company deal with this.  As far as the room goes the shower made so much noise and vibrated through the wall. I actually made the screw on the hot water handle fall off.  The bed had no top sheet after I took the comforter off the bed.  Called the front desk but the were fresh out of sheets! Got one from the maid the next day. Also on Friday night they had a "Glow Party" for 18yrs and over until 2:00am. There was screaming, yelling, burning rubber in the parking lot.  I was very concerned for my rental car.  But all was fine with it the next morning. The parking lot was packed and hotel guest could not even park at the hotel.  I probably would have not written a review had it not been the CC situation.  People need to now that this place is not legit.  Go someplace else!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d296530-r320435388-Nite_Star_Inn_Suites-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>320435388</t>
+  </si>
+  <si>
+    <t>10/20/2015</t>
+  </si>
+  <si>
+    <t>Hotel hell</t>
+  </si>
+  <si>
+    <t>This Was the most discusting hotel I ever seen in my life! I reserved the room on line..does not look anything like the picture's on their website!when I enter the lobby ..I completely wanted tO run out I thought it was A nightmare! I wanted to try canceled they had already charged my card..for the two days...I was so mad....got to the room  iT STUNK..the tub was dirty discusting I had to put plastics bags so i wouldn't step on it..the beds smell..had to go to Walmart gET my own blankets.and people outside drinking and bBQ..don't rec commend at all I thought because it was close to the stadium it was gonna be a nice hotel!..they should change the name to America's  best in and hell suite's!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>This Was the most discusting hotel I ever seen in my life! I reserved the room on line..does not look anything like the picture's on their website!when I enter the lobby ..I completely wanted tO run out I thought it was A nightmare! I wanted to try canceled they had already charged my card..for the two days...I was so mad....got to the room  iT STUNK..the tub was dirty discusting I had to put plastics bags so i wouldn't step on it..the beds smell..had to go to Walmart gET my own blankets.and people outside drinking and bBQ..don't rec commend at all I thought because it was close to the stadium it was gonna be a nice hotel!..they should change the name to America's  best in and hell suite's!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d296530-r307650536-Nite_Star_Inn_Suites-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>307650536</t>
+  </si>
+  <si>
+    <t>09/06/2015</t>
+  </si>
+  <si>
+    <t>Words can't describe this horrible place!!</t>
+  </si>
+  <si>
+    <t>One of the worst place I have ever stayed in! I don't recommend this dump to anyone ! Yes a dump the room sunk it was dirty drunk people outside your door very un self dark nasty! And my god! Very very disgusting!  Only good thing bout it I found 90.00 bucks under the bed :)</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d296530-r297345248-Nite_Star_Inn_Suites-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>297345248</t>
+  </si>
+  <si>
+    <t>08/09/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Started out bad </t>
+  </si>
+  <si>
+    <t>We arrived to check in and were gonna stay 5 nights, the lady at the front desk advised us would be cheaper to pay the weekly rate so we did. It was Thursda, Friday room was cleaned and fresh towels. Sat nothing I then asked the housekeeper for towels she said no not your day. I called the front desk to complain and was informed because we paid weekly rate they only serviced rooms on Friday and Tuesday.  We were never informed about this. I ended up washing out towels.  I went to the desk to ask for toilet paper and was told no til I pitched a fit I said I played you $320 for five days and to wash my own towels asked for GM phone number the next day problem solved. Clean decent motel not much in the area. Close to stadiums.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>We arrived to check in and were gonna stay 5 nights, the lady at the front desk advised us would be cheaper to pay the weekly rate so we did. It was Thursda, Friday room was cleaned and fresh towels. Sat nothing I then asked the housekeeper for towels she said no not your day. I called the front desk to complain and was informed because we paid weekly rate they only serviced rooms on Friday and Tuesday.  We were never informed about this. I ended up washing out towels.  I went to the desk to ask for toilet paper and was told no til I pitched a fit I said I played you $320 for five days and to wash my own towels asked for GM phone number the next day problem solved. Clean decent motel not much in the area. Close to stadiums.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d296530-r254266326-Nite_Star_Inn_Suites-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>254266326</t>
+  </si>
+  <si>
+    <t>02/15/2015</t>
+  </si>
+  <si>
+    <t>Not as advertised</t>
+  </si>
+  <si>
+    <t>Booked this hotel online on my way to Dallas. Total price was $80 with tax. They advertised double room; double queen beds. Instead we got a single double full beds. The hotel is old, but it looks clean in the outside. The front desk staff is very friendly and there is a Puertorican restaurant/club attached to the lobby and a club/lounge upstairs from the lobby. The hotel is located next to the highway so try to get a room away from the entrance. Parking is limited at night; I said this because you will have to compete for parking with people going into the clubs. They have a guy managing the parking but they were allowing people to park by the rooms so expect drunk people and a lot of noise next to your room at about 2 am. Walls are thin and you can clearly hear people talking and walking in the room next to us. I stayed in the 2nd flr and I feel sorry for the guy that stayed in the 1st flr. Hotel has a pool, ice machine next to the lobby and they serve danishes and muffins with coffee from 0630 to 0830. There is a Denny's down the road in case that you didn't care about this review and decided to stay. Or maybe you are here traveling to watch your team getting beat by the Cowboys, then this is the right hotel for...Booked this hotel online on my way to Dallas. Total price was $80 with tax. They advertised double room; double queen beds. Instead we got a single double full beds. The hotel is old, but it looks clean in the outside. The front desk staff is very friendly and there is a Puertorican restaurant/club attached to the lobby and a club/lounge upstairs from the lobby. The hotel is located next to the highway so try to get a room away from the entrance. Parking is limited at night; I said this because you will have to compete for parking with people going into the clubs. They have a guy managing the parking but they were allowing people to park by the rooms so expect drunk people and a lot of noise next to your room at about 2 am. Walls are thin and you can clearly hear people talking and walking in the room next to us. I stayed in the 2nd flr and I feel sorry for the guy that stayed in the 1st flr. Hotel has a pool, ice machine next to the lobby and they serve danishes and muffins with coffee from 0630 to 0830. There is a Denny's down the road in case that you didn't care about this review and decided to stay. Or maybe you are here traveling to watch your team getting beat by the Cowboys, then this is the right hotel for you! My room smell ok to be an old room. The room was clean except under the beds. Water pressure was great; A/C works great; room comes with a flat screen TV, microwave, table and fridge. Also, my room came with a small cockroach that I smashed on the carpet (see pic). Word of advice, keep all your bags on top of the table and spend some extra bucks and get yourself something better.MoreShow less</t>
+  </si>
+  <si>
+    <t>Booked this hotel online on my way to Dallas. Total price was $80 with tax. They advertised double room; double queen beds. Instead we got a single double full beds. The hotel is old, but it looks clean in the outside. The front desk staff is very friendly and there is a Puertorican restaurant/club attached to the lobby and a club/lounge upstairs from the lobby. The hotel is located next to the highway so try to get a room away from the entrance. Parking is limited at night; I said this because you will have to compete for parking with people going into the clubs. They have a guy managing the parking but they were allowing people to park by the rooms so expect drunk people and a lot of noise next to your room at about 2 am. Walls are thin and you can clearly hear people talking and walking in the room next to us. I stayed in the 2nd flr and I feel sorry for the guy that stayed in the 1st flr. Hotel has a pool, ice machine next to the lobby and they serve danishes and muffins with coffee from 0630 to 0830. There is a Denny's down the road in case that you didn't care about this review and decided to stay. Or maybe you are here traveling to watch your team getting beat by the Cowboys, then this is the right hotel for...Booked this hotel online on my way to Dallas. Total price was $80 with tax. They advertised double room; double queen beds. Instead we got a single double full beds. The hotel is old, but it looks clean in the outside. The front desk staff is very friendly and there is a Puertorican restaurant/club attached to the lobby and a club/lounge upstairs from the lobby. The hotel is located next to the highway so try to get a room away from the entrance. Parking is limited at night; I said this because you will have to compete for parking with people going into the clubs. They have a guy managing the parking but they were allowing people to park by the rooms so expect drunk people and a lot of noise next to your room at about 2 am. Walls are thin and you can clearly hear people talking and walking in the room next to us. I stayed in the 2nd flr and I feel sorry for the guy that stayed in the 1st flr. Hotel has a pool, ice machine next to the lobby and they serve danishes and muffins with coffee from 0630 to 0830. There is a Denny's down the road in case that you didn't care about this review and decided to stay. Or maybe you are here traveling to watch your team getting beat by the Cowboys, then this is the right hotel for you! My room smell ok to be an old room. The room was clean except under the beds. Water pressure was great; A/C works great; room comes with a flat screen TV, microwave, table and fridge. Also, my room came with a small cockroach that I smashed on the carpet (see pic). Word of advice, keep all your bags on top of the table and spend some extra bucks and get yourself something better.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d296530-r249004701-Nite_Star_Inn_Suites-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>249004701</t>
+  </si>
+  <si>
+    <t>01/12/2015</t>
+  </si>
+  <si>
+    <t>WORST PLACE EVER</t>
+  </si>
+  <si>
+    <t>Trashy and very outdated.  The smell is terrible!  Very dark and scary. Booked 3 nights.  Didn't even stay 1 night, left within 30 minutes They would only refund 2 nights!  Very unprofessional!!Went down the road and stayed at Admiral Hotel.  Same price.  Night and day differance!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>Matthew K, Guest Relations Manager at Nite Star Inn &amp; Suites, responded to this reviewResponded January 19, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 19, 2015</t>
+  </si>
+  <si>
+    <t>Trashy and very outdated.  The smell is terrible!  Very dark and scary. Booked 3 nights.  Didn't even stay 1 night, left within 30 minutes They would only refund 2 nights!  Very unprofessional!!Went down the road and stayed at Admiral Hotel.  Same price.  Night and day differance!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d296530-r244029326-Nite_Star_Inn_Suites-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>244029326</t>
+  </si>
+  <si>
+    <t>12/11/2014</t>
+  </si>
+  <si>
+    <t>Could have been better.</t>
+  </si>
+  <si>
+    <t>I am always apprehensive about places with the word 'best' in them. But at least it wasn't the 'worst' by any means. It's a bit dated but well laid-out. It's also right off the highway so I would recommend a room that is set back from the road, it makes a BIG difference. I booked a Deluxe room but when I got there was given a Standard, even though they insisted it was a Deluxe. After about 3 hours I got moved to a Deluxe (a real Deluxe this time). But the fridge wasn't as nice, the A/C was noisy and there were some bad plaster repairs on the ceiling. At least it is convenient to the highway and you can actually walk to 6 restaurants, one of which is a small Cuban place adjacent to the hotel lobby. Overall a 3-minus but still not offensive by any means.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>I am always apprehensive about places with the word 'best' in them. But at least it wasn't the 'worst' by any means. It's a bit dated but well laid-out. It's also right off the highway so I would recommend a room that is set back from the road, it makes a BIG difference. I booked a Deluxe room but when I got there was given a Standard, even though they insisted it was a Deluxe. After about 3 hours I got moved to a Deluxe (a real Deluxe this time). But the fridge wasn't as nice, the A/C was noisy and there were some bad plaster repairs on the ceiling. At least it is convenient to the highway and you can actually walk to 6 restaurants, one of which is a small Cuban place adjacent to the hotel lobby. Overall a 3-minus but still not offensive by any means.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d296530-r161174689-Nite_Star_Inn_Suites-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>161174689</t>
+  </si>
+  <si>
+    <t>05/19/2013</t>
+  </si>
+  <si>
+    <t>Nice little hotel off the highway next to everything!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pulling up it seems run down and old but the inside of rooms are pretty nice. NO bugs or dirty bathrooms.  Housekeeper did a good job. Tv's are a bit old they might want to upgrade pretty soon. Water pressure was good. Bed kinda stiff but it did its job. Everyone is really nice! Overall if you are on a budget this place is good. And i read other reviews but i think they have new management and are turning things around. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d296530-r151053501-Nite_Star_Inn_Suites-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>151053501</t>
+  </si>
+  <si>
+    <t>01/30/2013</t>
+  </si>
+  <si>
+    <t>Horrible!!!</t>
+  </si>
+  <si>
+    <t>I stayed there last night and it was the most horrible experience ever. There was a car that came through the iron fence and then gunshots. The police was there all night and nobody was allowed to come or go. The rooms are not up to standard and roaches everywhere. The mattress was the most disgusting thing I have ever slept on. I do not recommend my dog to go there much less people...MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>Americasbestinns1175, Guest Relations Manager at Nite Star Inn &amp; Suites, responded to this reviewResponded February 6, 2013</t>
+  </si>
+  <si>
+    <t>Responded February 6, 2013</t>
+  </si>
+  <si>
+    <t>I stayed there last night and it was the most horrible experience ever. There was a car that came through the iron fence and then gunshots. The police was there all night and nobody was allowed to come or go. The rooms are not up to standard and roaches everywhere. The mattress was the most disgusting thing I have ever slept on. I do not recommend my dog to go there much less people...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d296530-r150694560-Nite_Star_Inn_Suites-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>150694560</t>
+  </si>
+  <si>
+    <t>01/26/2013</t>
+  </si>
+  <si>
+    <t>we enjoyed our stay.....</t>
+  </si>
+  <si>
+    <t>the staff was very nice and helpful...the room was clean.....and i was glad my skin did not itch from sleeping in a dirty room like some other hotels.... Me and my husband had a good time, privacy, and finally got a chance to relax... :)MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t>the staff was very nice and helpful...the room was clean.....and i was glad my skin did not itch from sleeping in a dirty room like some other hotels.... Me and my husband had a good time, privacy, and finally got a chance to relax... :)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d296530-r135710681-Nite_Star_Inn_Suites-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>135710681</t>
+  </si>
+  <si>
+    <t>07/29/2012</t>
+  </si>
+  <si>
+    <t>Never stay here again !</t>
+  </si>
+  <si>
+    <t>The people who run this hotel were very nice but the whole place is just not good. We were in a room that had been updated as much as could be done in such an old hotel.The worst thing for us was the guest above us stomped around until 3am each night and sound like they were going to fall through the ceiling at any moment.There is nothing in walking distance from there.The pool was not very clean and no one to correct the rowdy kids that were in it.Overall our stay was pretty miserable and the staff offered us snacks or drinks to make up for not getting any sleep. This is a cheap place if you want to save money but for sure you get what you pay for in this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>Americasbestinns1175, Guest Relations Manager at Nite Star Inn &amp; Suites, responded to this reviewResponded January 24, 2013</t>
+  </si>
+  <si>
+    <t>Responded January 24, 2013</t>
+  </si>
+  <si>
+    <t>The people who run this hotel were very nice but the whole place is just not good. We were in a room that had been updated as much as could be done in such an old hotel.The worst thing for us was the guest above us stomped around until 3am each night and sound like they were going to fall through the ceiling at any moment.There is nothing in walking distance from there.The pool was not very clean and no one to correct the rowdy kids that were in it.Overall our stay was pretty miserable and the staff offered us snacks or drinks to make up for not getting any sleep. This is a cheap place if you want to save money but for sure you get what you pay for in this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d296530-r132072003-Nite_Star_Inn_Suites-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>132072003</t>
+  </si>
+  <si>
+    <t>06/15/2012</t>
+  </si>
+  <si>
+    <t>Unsatisfying</t>
+  </si>
+  <si>
+    <t>We checked in at 4 and got back and went out to pool, came back to a terrible leak from ceiling in bathroom and the jacuzzi tub (the only reason I booked this hotel for me and my new fiancé) would not drain. The manager finally called me back herself and would not give us any refund - we are stuck for another night in a 2/10 hotel. The room is small,smells like a cheap motel, and the light switches are from the 1970s. This place may be reasonably priced but NOT worth the money or time!!! And we are on the bottom floor and can hear every single step the people above us make. We can even hear them talking. Sheets were soft was the ONLY nice thing about this hotel!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>We checked in at 4 and got back and went out to pool, came back to a terrible leak from ceiling in bathroom and the jacuzzi tub (the only reason I booked this hotel for me and my new fiancé) would not drain. The manager finally called me back herself and would not give us any refund - we are stuck for another night in a 2/10 hotel. The room is small,smells like a cheap motel, and the light switches are from the 1970s. This place may be reasonably priced but NOT worth the money or time!!! And we are on the bottom floor and can hear every single step the people above us make. We can even hear them talking. Sheets were soft was the ONLY nice thing about this hotel!!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d296530-r118630672-Nite_Star_Inn_Suites-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>118630672</t>
+  </si>
+  <si>
+    <t>09/26/2011</t>
+  </si>
+  <si>
+    <t>Wouldn't do it again....</t>
+  </si>
+  <si>
+    <t>Stayed here for State Special Olympic Games. Our team stayed here, or we would not have after seeing the property. Old, worn out, and bugs, not bed bugs, but still.</t>
+  </si>
+  <si>
+    <t>May 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d296530-r80597962-Nite_Star_Inn_Suites-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>80597962</t>
+  </si>
+  <si>
+    <t>09/22/2010</t>
+  </si>
+  <si>
+    <t>very good stay.</t>
+  </si>
+  <si>
+    <t>clean rooms quiet, frendly peaople at the front desk.  good location   great.  cynthia,moedano, was a great host,,.</t>
+  </si>
+  <si>
+    <t>September 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d296530-r67829976-Nite_Star_Inn_Suites-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>67829976</t>
+  </si>
+  <si>
+    <t>06/17/2010</t>
+  </si>
+  <si>
+    <t>Excellent place to stay, if a little out of the way</t>
+  </si>
+  <si>
+    <t>The Rodeway Inn was brilliant for us.  I couldn't have expected a better place to go for the pittence I paid.  And even then, I expected far worse than what we got.
+The reception staff were brilliant, and very helpful.  They would allow you tp use their iternet facilities behind the desk whenever needed to arrange flights/buses/Facebook etc, and the young gentleman Van was truly hilarious, and we're still in touch with him.
+The bathroom was very small, and you could pretty much wash your hair and sit on the toilet at the same time, but it was fine for what we needed, and there was plenty of hot water and towels.  The sink area was huge with a big mirror, and well-lit, not that you could do your makeup to any effect in the heat!  The air conditioning may have been a little noisy, but it was very well-received.  I think we would have melted without it.
+The pool wasn't open when we arrived, but after a great deal of bullying the manager (Santiago) into getting it sorted, our lovely receptionist Van had gotten it opened by our second day.  It's a small pool, but it's never busy, and the most we shared it with were two quiet girls.  There are ice-creams and drinks on sale all day, too, so it was nice to just relax.  It's a total suntrap and perfect for a tan.
+The only downside was...The Rodeway Inn was brilliant for us.  I couldn't have expected a better place to go for the pittence I paid.  And even then, I expected far worse than what we got.The reception staff were brilliant, and very helpful.  They would allow you tp use their iternet facilities behind the desk whenever needed to arrange flights/buses/Facebook etc, and the young gentleman Van was truly hilarious, and we're still in touch with him.The bathroom was very small, and you could pretty much wash your hair and sit on the toilet at the same time, but it was fine for what we needed, and there was plenty of hot water and towels.  The sink area was huge with a big mirror, and well-lit, not that you could do your makeup to any effect in the heat!  The air conditioning may have been a little noisy, but it was very well-received.  I think we would have melted without it.The pool wasn't open when we arrived, but after a great deal of bullying the manager (Santiago) into getting it sorted, our lovely receptionist Van had gotten it opened by our second day.  It's a small pool, but it's never busy, and the most we shared it with were two quiet girls.  There are ice-creams and drinks on sale all day, too, so it was nice to just relax.  It's a total suntrap and perfect for a tan.The only downside was the breakfast option, as it was very basic and only included a few pastries and coffee/tea.  However, the staff were always at hand to recommend places to eat and hand out take-away menus, and across the road is a fantastic Chinese all-you-can-eat, which was really nice.  Failing that, there's a Wendy's next door!Also, another disappointment is the location.  Arlington offers very little in the way of public transprt so you really do need to get cabs unless you're driving.  There's an Avis car hire next to the aforementioned Chinese, so it isn't really a hardship.  Six Flags Over Texas is visible from the rooms, and isn't that far a walk.  It's more a little nerve-wracking walking alongside the freeway!  Oh, and after a full day at the theme park, don't expect to have enough energy to walk it back again!  The Greyhound bus station isn't that far away either, maybe a ten-minute drive?  But then, you can't blame the hotel for public transport.A little way down the road (about 3mins at my slow pace) is a garage offering plenty of food, drink, cigarettes etc, and there are ATMs everywhere.  Not far from the garage is a divine little restaurant called Saltgrass which serves the best steaks in Texas, I'm sure of it.  The staff were excellent there, too.  If you decide to head little further out into the entertainment district there's plenty to do, but alas, we only dragged ourselves there late on, and simply headed to Sherlock's Bar for a good few cold beers.As a side note - Sherlocks is an English-themed bar, and I did not have high hopes!  I hate English bars.  However, this place is FANTASTIC.  I highly recommend it.  It is a little strange that the patio is non-smoking, and inside is smoking, but as a pair of chimmneys, it suit us brilliantly :)  They have a big selection of live entertainment on, and karaoke was pretty amusing.  They have a brilliant choice of food and drinks, and everything we had (bar a few badly-chosen cocktails) tasted wonderful.  IOf you want to have a night out, but don't like crawling bars, stay in Sherlocks, if you DO like crawling, there's a TGI Fridays, Hooters, and more across the concourse, with shops and restaurants dotted around in easy reach.All in all, the Rodeway Inn was in a good location, really, it's just that Arlington itself is a bit spartan.  The staff were brilliant, the pool was much needed, and the rooms were lovely and clean.  We loved it, and would definitely go back.  We just wouldn't get a taxi from the airport unless they knew where they were going, as it is situated on a little service road that nobody knows about.  If you go, ask for them to come off at Lamar Blvd!MoreShow less</t>
+  </si>
+  <si>
+    <t>The Rodeway Inn was brilliant for us.  I couldn't have expected a better place to go for the pittence I paid.  And even then, I expected far worse than what we got.
+The reception staff were brilliant, and very helpful.  They would allow you tp use their iternet facilities behind the desk whenever needed to arrange flights/buses/Facebook etc, and the young gentleman Van was truly hilarious, and we're still in touch with him.
+The bathroom was very small, and you could pretty much wash your hair and sit on the toilet at the same time, but it was fine for what we needed, and there was plenty of hot water and towels.  The sink area was huge with a big mirror, and well-lit, not that you could do your makeup to any effect in the heat!  The air conditioning may have been a little noisy, but it was very well-received.  I think we would have melted without it.
+The pool wasn't open when we arrived, but after a great deal of bullying the manager (Santiago) into getting it sorted, our lovely receptionist Van had gotten it opened by our second day.  It's a small pool, but it's never busy, and the most we shared it with were two quiet girls.  There are ice-creams and drinks on sale all day, too, so it was nice to just relax.  It's a total suntrap and perfect for a tan.
+The only downside was...The Rodeway Inn was brilliant for us.  I couldn't have expected a better place to go for the pittence I paid.  And even then, I expected far worse than what we got.The reception staff were brilliant, and very helpful.  They would allow you tp use their iternet facilities behind the desk whenever needed to arrange flights/buses/Facebook etc, and the young gentleman Van was truly hilarious, and we're still in touch with him.The bathroom was very small, and you could pretty much wash your hair and sit on the toilet at the same time, but it was fine for what we needed, and there was plenty of hot water and towels.  The sink area was huge with a big mirror, and well-lit, not that you could do your makeup to any effect in the heat!  The air conditioning may have been a little noisy, but it was very well-received.  I think we would have melted without it.The pool wasn't open when we arrived, but after a great deal of bullying the manager (Santiago) into getting it sorted, our lovely receptionist Van had gotten it opened by our second day.  It's a small pool, but it's never busy, and the most we shared it with were two quiet girls.  There are ice-creams and drinks on sale all day, too, so it was nice to just relax.  It's a total suntrap and perfect for a tan.The only downside was the breakfast option, as it was very basic and only included a few pastries and coffee/tea.  However, the staff were always at hand to recommend places to eat and hand out take-away menus, and across the road is a fantastic Chinese all-you-can-eat, which was really nice.  Failing that, there's a Wendy's next door!Also, another disappointment is the location.  Arlington offers very little in the way of public transprt so you really do need to get cabs unless you're driving.  There's an Avis car hire next to the aforementioned Chinese, so it isn't really a hardship.  Six Flags Over Texas is visible from the rooms, and isn't that far a walk.  It's more a little nerve-wracking walking alongside the freeway!  Oh, and after a full day at the theme park, don't expect to have enough energy to walk it back again!  The Greyhound bus station isn't that far away either, maybe a ten-minute drive?  But then, you can't blame the hotel for public transport.A little way down the road (about 3mins at my slow pace) is a garage offering plenty of food, drink, cigarettes etc, and there are ATMs everywhere.  Not far from the garage is a divine little restaurant called Saltgrass which serves the best steaks in Texas, I'm sure of it.  The staff were excellent there, too.  If you decide to head little further out into the entertainment district there's plenty to do, but alas, we only dragged ourselves there late on, and simply headed to Sherlock's Bar for a good few cold beers.As a side note - Sherlocks is an English-themed bar, and I did not have high hopes!  I hate English bars.  However, this place is FANTASTIC.  I highly recommend it.  It is a little strange that the patio is non-smoking, and inside is smoking, but as a pair of chimmneys, it suit us brilliantly :)  They have a big selection of live entertainment on, and karaoke was pretty amusing.  They have a brilliant choice of food and drinks, and everything we had (bar a few badly-chosen cocktails) tasted wonderful.  IOf you want to have a night out, but don't like crawling bars, stay in Sherlocks, if you DO like crawling, there's a TGI Fridays, Hooters, and more across the concourse, with shops and restaurants dotted around in easy reach.All in all, the Rodeway Inn was in a good location, really, it's just that Arlington itself is a bit spartan.  The staff were brilliant, the pool was much needed, and the rooms were lovely and clean.  We loved it, and would definitely go back.  We just wouldn't get a taxi from the airport unless they knew where they were going, as it is situated on a little service road that nobody knows about.  If you go, ask for them to come off at Lamar Blvd!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d296530-r50725886-Nite_Star_Inn_Suites-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>50725886</t>
+  </si>
+  <si>
+    <t>12/06/2009</t>
+  </si>
+  <si>
+    <t>Pick another</t>
+  </si>
+  <si>
+    <t>Dirty parking lot, old converted motel property, stains around sink, dirty walls, curved shower curtain rods bangs head while standing at toilet.  Many better properties in the area for the same price.</t>
+  </si>
+  <si>
+    <t>December 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d296530-r32714631-Nite_Star_Inn_Suites-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>32714631</t>
+  </si>
+  <si>
+    <t>06/19/2009</t>
+  </si>
+  <si>
+    <t>RAT-HOLE</t>
+  </si>
+  <si>
+    <t>Amenities not as promised. Booked through cheaprooms.com. No working refrigerator or microwave,no working hair dryer, dirty ice bucket, filthy bathroom including a hole in the wall exposing wires, shower tiles coming away from the walls, moldy caulk peeling away from tub,and a dirty towel from the previous occupant left hanging on the back of the door by the maid. Don't stay in this rat-hole.</t>
+  </si>
+  <si>
+    <t>May 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d296530-r23410420-Nite_Star_Inn_Suites-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>23410420</t>
+  </si>
+  <si>
+    <t>01/09/2009</t>
+  </si>
+  <si>
+    <t>Roach Infested Unclean and Not Worthy of Choice Hotels!</t>
+  </si>
+  <si>
+    <t>I am writing this in hopes it will prevent anybody else from having a experience as we did. Upon traveling to our new duty station(military family) we decided to stop at rodeway inn in arlington texas , as we always usually choose choice hotels when possible. BIG MISTAKE!  The night manager who was foreign was on the phone talking and could care less about hanging up so he could check me in, upon arriving in first of 3 rooms that night i saw a roach crawling into the microwave back area, then one by fridge. I go back and tell him and ask for another room, he sends me directly upstairs (when we had small kids and rest of hotel was empty) and gives us a room that in the sink was what appeared to be backwash from the drain that was DISGUSTING! Last room he issues us is semi ok but did find a small roach crawling on carpet which i promptly had to step on, it appeared to be a handicap room and was probably used less and the only available room that was not clean. I literally cringed as i lay down in the bed and prayed that i could just mke it through the night. The lobby in the morning was locked when it should have been open for cont breakfast. Manager finally shows up and looks at me like "what do you want"?
+We left...I am writing this in hopes it will prevent anybody else from having a experience as we did. Upon traveling to our new duty station(military family) we decided to stop at rodeway inn in arlington texas , as we always usually choose choice hotels when possible. BIG MISTAKE!  The night manager who was foreign was on the phone talking and could care less about hanging up so he could check me in, upon arriving in first of 3 rooms that night i saw a roach crawling into the microwave back area, then one by fridge. I go back and tell him and ask for another room, he sends me directly upstairs (when we had small kids and rest of hotel was empty) and gives us a room that in the sink was what appeared to be backwash from the drain that was DISGUSTING! Last room he issues us is semi ok but did find a small roach crawling on carpet which i promptly had to step on, it appeared to be a handicap room and was probably used less and the only available room that was not clean. I literally cringed as i lay down in the bed and prayed that i could just mke it through the night. The lobby in the morning was locked when it should have been open for cont breakfast. Manager finally shows up and looks at me like "what do you want"?We left ate at mcdonalds across the way and was jut flat out horrified at what we just had to endure. This is a place that is not worthy of the rodeway inn name or choice hotels!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2008</t>
+  </si>
+  <si>
+    <t>I am writing this in hopes it will prevent anybody else from having a experience as we did. Upon traveling to our new duty station(military family) we decided to stop at rodeway inn in arlington texas , as we always usually choose choice hotels when possible. BIG MISTAKE!  The night manager who was foreign was on the phone talking and could care less about hanging up so he could check me in, upon arriving in first of 3 rooms that night i saw a roach crawling into the microwave back area, then one by fridge. I go back and tell him and ask for another room, he sends me directly upstairs (when we had small kids and rest of hotel was empty) and gives us a room that in the sink was what appeared to be backwash from the drain that was DISGUSTING! Last room he issues us is semi ok but did find a small roach crawling on carpet which i promptly had to step on, it appeared to be a handicap room and was probably used less and the only available room that was not clean. I literally cringed as i lay down in the bed and prayed that i could just mke it through the night. The lobby in the morning was locked when it should have been open for cont breakfast. Manager finally shows up and looks at me like "what do you want"?
+We left...I am writing this in hopes it will prevent anybody else from having a experience as we did. Upon traveling to our new duty station(military family) we decided to stop at rodeway inn in arlington texas , as we always usually choose choice hotels when possible. BIG MISTAKE!  The night manager who was foreign was on the phone talking and could care less about hanging up so he could check me in, upon arriving in first of 3 rooms that night i saw a roach crawling into the microwave back area, then one by fridge. I go back and tell him and ask for another room, he sends me directly upstairs (when we had small kids and rest of hotel was empty) and gives us a room that in the sink was what appeared to be backwash from the drain that was DISGUSTING! Last room he issues us is semi ok but did find a small roach crawling on carpet which i promptly had to step on, it appeared to be a handicap room and was probably used less and the only available room that was not clean. I literally cringed as i lay down in the bed and prayed that i could just mke it through the night. The lobby in the morning was locked when it should have been open for cont breakfast. Manager finally shows up and looks at me like "what do you want"?We left ate at mcdonalds across the way and was jut flat out horrified at what we just had to endure. This is a place that is not worthy of the rodeway inn name or choice hotels!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d296530-r15016058-Nite_Star_Inn_Suites-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>15016058</t>
+  </si>
+  <si>
+    <t>04/13/2008</t>
+  </si>
+  <si>
+    <t>Was The Worst Ever</t>
+  </si>
+  <si>
+    <t>THIS WAS THE WORST HOTEL I HAVE EVER STAYED IN. THERE WAS A ROACH COMING OUT OF THE MICROWAVE VENT, THE CHAIN ON THE DOOR WAS NO LONGER THERE,spiders were in the tub, and 1 crawling on the wall, spider webs were behind the door. The beds were so uncomfortable! I kept checking my phone for the time to see if it was time to get up because I couldnt sleep. The indoor pool DOES NOT EXIST! When I called the desk they wouldnt even answer the phone. If you need a place by six flags and reasonable do Ranger Hotel, Every other hotel there was nice, but Ranger is right avross the street from 6-flags, and reasonable. I even pulled a desk infront of the front door because it didnt feel safe without a lock!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2008</t>
+  </si>
+  <si>
+    <t>THIS WAS THE WORST HOTEL I HAVE EVER STAYED IN. THERE WAS A ROACH COMING OUT OF THE MICROWAVE VENT, THE CHAIN ON THE DOOR WAS NO LONGER THERE,spiders were in the tub, and 1 crawling on the wall, spider webs were behind the door. The beds were so uncomfortable! I kept checking my phone for the time to see if it was time to get up because I couldnt sleep. The indoor pool DOES NOT EXIST! When I called the desk they wouldnt even answer the phone. If you need a place by six flags and reasonable do Ranger Hotel, Every other hotel there was nice, but Ranger is right avross the street from 6-flags, and reasonable. I even pulled a desk infront of the front door because it didnt feel safe without a lock!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d296530-r2449948-Nite_Star_Inn_Suites-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>2449948</t>
+  </si>
+  <si>
+    <t>08/14/2004</t>
+  </si>
+  <si>
+    <t>If you wish to get a good night's sleep, DON'T stay here!</t>
+  </si>
+  <si>
+    <t>As of this writing it is 2:42 am.  
+I am very distressed at the lack of professionalism shown by the managment of this hotel.  
+I was told that the new manager, Avi, didn't care about the following problem because they were new managers and not responsible for me being satisfied with my stay. 
+There was a great deal of thumping, pounding music being played, that at one point set off car alarms in the parking lot.  The music was coming from one of the halls in the main building that was rented out for a party.  At 1:20 am I called and was told that the party would be over in 10 minutes and I should not worry, they were sorry for the noise, and all would be taken care of.  The manager was on his way to deal with the problem of the loud party.  
+About 1:30 am the manager called and wanted to know what was wrong with my room that I couldn't sleep.  I explained about the very loud party.  He said it was just finishing and not to worry. 
+Trying to be understanding, I waited until about 1:40 and called back to see what was taking so long about getting the noise stopped, because I hadn't been able to sleep and I had originally planned to stay another night, but if the noise wasn't taken care of soon, I would be cancelling that night.  I was...As of this writing it is 2:42 am.  I am very distressed at the lack of professionalism shown by the managment of this hotel.  I was told that the new manager, Avi, didn't care about the following problem because they were new managers and not responsible for me being satisfied with my stay. There was a great deal of thumping, pounding music being played, that at one point set off car alarms in the parking lot.  The music was coming from one of the halls in the main building that was rented out for a party.  At 1:20 am I called and was told that the party would be over in 10 minutes and I should not worry, they were sorry for the noise, and all would be taken care of.  The manager was on his way to deal with the problem of the loud party.  About 1:30 am the manager called and wanted to know what was wrong with my room that I couldn't sleep.  I explained about the very loud party.  He said it was just finishing and not to worry. Trying to be understanding, I waited until about 1:40 and called back to see what was taking so long about getting the noise stopped, because I hadn't been able to sleep and I had originally planned to stay another night, but if the noise wasn't taken care of soon, I would be cancelling that night.  I was told I was talking to the new manager, he had recently bought the place, and couldn't be responsible for the fact that this party had been booked before he got the property.  I was also told it would be taken care of, but that he couldn't do anything because of the noise law in Texas.  It would be 2am before any laws could be enforced.  I then waited again and called at 2:10 and asked why the party was still going on.  I was told that there were problems and I shouldn't worry.  I explained that I was trying to sleep and hadn't been able to, so I wasn't going to stay the next night.  He said I would have to wait and talk to the manager in the morning about that.  I asked if he wasn't the manager, and he said he was, but that he couldn't talk about anything like that until the morning.  The party would be over and I should not worry.  By 2:20 I decided that I had been more than patient.  The local authorities were called and asked about the noise levels.  They said they would send someone out.  By 2:30, I called the office to tell them I would not be staying the next night and I wanted a refund on the present night.  I was told that things were under control, and I should not worry, everything would be taken care of because he had had a fight with the people in the party, and they were going to leave, and oh the police had shown up, so things would be taken care of.  I asked who I needed to talk about getting a refund for the present night, and he told me I didn't need to worry about that, things would be ok.  I said I couldn't get back the time for sleep I had missed out on.  I wanted a number for who I needed to call about getting my reservation for the next night cancelled and for getting a refund for the present night.  He told me he couldn't give me that number, but I insisted, and then told me to call a number.  The number that he gave me was for the hotel itself and when I called it, he told me that he didn't have any money from me and I didn't need to worry about it.  I said that I had paid for the stay at the beginning, so he had gotten money from me.  The man went into a long tirade about how he had just gotten the place and was therefore not responsible for the party that had just been held.  He could not be responsible for anything that happened because he was a new manager.  If I was unhappy, he didn't care, I would have to go about getting my money from the place that I had used to book the room with and if I could get it back, then that would be fine, but he didn't care.  I would like to make others aware of the fact that the manager, who identified himself as Avi, doesn't care about the people who stay in his establishment.MoreShow less</t>
+  </si>
+  <si>
+    <t>As of this writing it is 2:42 am.  
+I am very distressed at the lack of professionalism shown by the managment of this hotel.  
+I was told that the new manager, Avi, didn't care about the following problem because they were new managers and not responsible for me being satisfied with my stay. 
+There was a great deal of thumping, pounding music being played, that at one point set off car alarms in the parking lot.  The music was coming from one of the halls in the main building that was rented out for a party.  At 1:20 am I called and was told that the party would be over in 10 minutes and I should not worry, they were sorry for the noise, and all would be taken care of.  The manager was on his way to deal with the problem of the loud party.  
+About 1:30 am the manager called and wanted to know what was wrong with my room that I couldn't sleep.  I explained about the very loud party.  He said it was just finishing and not to worry. 
+Trying to be understanding, I waited until about 1:40 and called back to see what was taking so long about getting the noise stopped, because I hadn't been able to sleep and I had originally planned to stay another night, but if the noise wasn't taken care of soon, I would be cancelling that night.  I was...As of this writing it is 2:42 am.  I am very distressed at the lack of professionalism shown by the managment of this hotel.  I was told that the new manager, Avi, didn't care about the following problem because they were new managers and not responsible for me being satisfied with my stay. There was a great deal of thumping, pounding music being played, that at one point set off car alarms in the parking lot.  The music was coming from one of the halls in the main building that was rented out for a party.  At 1:20 am I called and was told that the party would be over in 10 minutes and I should not worry, they were sorry for the noise, and all would be taken care of.  The manager was on his way to deal with the problem of the loud party.  About 1:30 am the manager called and wanted to know what was wrong with my room that I couldn't sleep.  I explained about the very loud party.  He said it was just finishing and not to worry. Trying to be understanding, I waited until about 1:40 and called back to see what was taking so long about getting the noise stopped, because I hadn't been able to sleep and I had originally planned to stay another night, but if the noise wasn't taken care of soon, I would be cancelling that night.  I was told I was talking to the new manager, he had recently bought the place, and couldn't be responsible for the fact that this party had been booked before he got the property.  I was also told it would be taken care of, but that he couldn't do anything because of the noise law in Texas.  It would be 2am before any laws could be enforced.  I then waited again and called at 2:10 and asked why the party was still going on.  I was told that there were problems and I shouldn't worry.  I explained that I was trying to sleep and hadn't been able to, so I wasn't going to stay the next night.  He said I would have to wait and talk to the manager in the morning about that.  I asked if he wasn't the manager, and he said he was, but that he couldn't talk about anything like that until the morning.  The party would be over and I should not worry.  By 2:20 I decided that I had been more than patient.  The local authorities were called and asked about the noise levels.  They said they would send someone out.  By 2:30, I called the office to tell them I would not be staying the next night and I wanted a refund on the present night.  I was told that things were under control, and I should not worry, everything would be taken care of because he had had a fight with the people in the party, and they were going to leave, and oh the police had shown up, so things would be taken care of.  I asked who I needed to talk about getting a refund for the present night, and he told me I didn't need to worry about that, things would be ok.  I said I couldn't get back the time for sleep I had missed out on.  I wanted a number for who I needed to call about getting my reservation for the next night cancelled and for getting a refund for the present night.  He told me he couldn't give me that number, but I insisted, and then told me to call a number.  The number that he gave me was for the hotel itself and when I called it, he told me that he didn't have any money from me and I didn't need to worry about it.  I said that I had paid for the stay at the beginning, so he had gotten money from me.  The man went into a long tirade about how he had just gotten the place and was therefore not responsible for the party that had just been held.  He could not be responsible for anything that happened because he was a new manager.  If I was unhappy, he didn't care, I would have to go about getting my money from the place that I had used to book the room with and if I could get it back, then that would be fine, but he didn't care.  I would like to make others aware of the fact that the manager, who identified himself as Avi, doesn't care about the people who stay in his establishment.More</t>
   </si>
 </sst>
 </file>
@@ -645,6 +1124,1392 @@
         <v>42</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>58435</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="n">
+        <v>1</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>58435</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" t="s">
+        <v>57</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>58</v>
+      </c>
+      <c r="O3" t="s">
+        <v>59</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>58435</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s"/>
+      <c r="O4" t="s"/>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>58435</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>67</v>
+      </c>
+      <c r="J5" t="s">
+        <v>68</v>
+      </c>
+      <c r="K5" t="s">
+        <v>69</v>
+      </c>
+      <c r="L5" t="s">
+        <v>70</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>71</v>
+      </c>
+      <c r="O5" t="s">
+        <v>59</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>58435</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>74</v>
+      </c>
+      <c r="J6" t="s">
+        <v>75</v>
+      </c>
+      <c r="K6" t="s">
+        <v>76</v>
+      </c>
+      <c r="L6" t="s">
+        <v>77</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>78</v>
+      </c>
+      <c r="O6" t="s">
+        <v>79</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>58435</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>81</v>
+      </c>
+      <c r="J7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L7" t="s">
+        <v>84</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3</v>
+      </c>
+      <c r="N7" t="s">
+        <v>85</v>
+      </c>
+      <c r="O7" t="s">
+        <v>86</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>58435</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>88</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>89</v>
+      </c>
+      <c r="J8" t="s">
+        <v>90</v>
+      </c>
+      <c r="K8" t="s">
+        <v>91</v>
+      </c>
+      <c r="L8" t="s">
+        <v>92</v>
+      </c>
+      <c r="M8" t="n">
+        <v>2</v>
+      </c>
+      <c r="N8" t="s"/>
+      <c r="O8" t="s"/>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>58435</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>94</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>95</v>
+      </c>
+      <c r="J9" t="s">
+        <v>96</v>
+      </c>
+      <c r="K9" t="s">
+        <v>97</v>
+      </c>
+      <c r="L9" t="s">
+        <v>98</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
+        <v>99</v>
+      </c>
+      <c r="O9" t="s">
+        <v>52</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="n">
+        <v>1</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>1</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>100</v>
+      </c>
+      <c r="X9" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>58435</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>103</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>104</v>
+      </c>
+      <c r="J10" t="s">
+        <v>105</v>
+      </c>
+      <c r="K10" t="s">
+        <v>106</v>
+      </c>
+      <c r="L10" t="s">
+        <v>107</v>
+      </c>
+      <c r="M10" t="n">
+        <v>3</v>
+      </c>
+      <c r="N10" t="s">
+        <v>108</v>
+      </c>
+      <c r="O10" t="s">
+        <v>86</v>
+      </c>
+      <c r="P10" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>3</v>
+      </c>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>3</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>58435</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>110</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>111</v>
+      </c>
+      <c r="J11" t="s">
+        <v>112</v>
+      </c>
+      <c r="K11" t="s">
+        <v>113</v>
+      </c>
+      <c r="L11" t="s">
+        <v>114</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s"/>
+      <c r="O11" t="s"/>
+      <c r="P11" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>4</v>
+      </c>
+      <c r="R11" t="n">
+        <v>5</v>
+      </c>
+      <c r="S11" t="n">
+        <v>5</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>58435</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>115</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>116</v>
+      </c>
+      <c r="J12" t="s">
+        <v>117</v>
+      </c>
+      <c r="K12" t="s">
+        <v>118</v>
+      </c>
+      <c r="L12" t="s">
+        <v>119</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>120</v>
+      </c>
+      <c r="O12" t="s">
+        <v>79</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>3</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>121</v>
+      </c>
+      <c r="X12" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>58435</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>124</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>125</v>
+      </c>
+      <c r="J13" t="s">
+        <v>126</v>
+      </c>
+      <c r="K13" t="s">
+        <v>127</v>
+      </c>
+      <c r="L13" t="s">
+        <v>128</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>129</v>
+      </c>
+      <c r="O13" t="s">
+        <v>59</v>
+      </c>
+      <c r="P13" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>4</v>
+      </c>
+      <c r="R13" t="n">
+        <v>3</v>
+      </c>
+      <c r="S13" t="n">
+        <v>5</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>121</v>
+      </c>
+      <c r="X13" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>58435</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>131</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>132</v>
+      </c>
+      <c r="J14" t="s">
+        <v>133</v>
+      </c>
+      <c r="K14" t="s">
+        <v>134</v>
+      </c>
+      <c r="L14" t="s">
+        <v>135</v>
+      </c>
+      <c r="M14" t="n">
+        <v>2</v>
+      </c>
+      <c r="N14" t="s">
+        <v>136</v>
+      </c>
+      <c r="O14" t="s">
+        <v>52</v>
+      </c>
+      <c r="P14" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1</v>
+      </c>
+      <c r="S14" t="n">
+        <v>3</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>2</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>137</v>
+      </c>
+      <c r="X14" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>58435</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>140</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>141</v>
+      </c>
+      <c r="J15" t="s">
+        <v>142</v>
+      </c>
+      <c r="K15" t="s">
+        <v>143</v>
+      </c>
+      <c r="L15" t="s">
+        <v>144</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" t="s"/>
+      <c r="O15" t="s"/>
+      <c r="P15" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2</v>
+      </c>
+      <c r="R15" t="n">
+        <v>3</v>
+      </c>
+      <c r="S15" t="n">
+        <v>2</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>1</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>137</v>
+      </c>
+      <c r="X15" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>58435</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>146</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>147</v>
+      </c>
+      <c r="J16" t="s">
+        <v>148</v>
+      </c>
+      <c r="K16" t="s">
+        <v>149</v>
+      </c>
+      <c r="L16" t="s">
+        <v>150</v>
+      </c>
+      <c r="M16" t="n">
+        <v>2</v>
+      </c>
+      <c r="N16" t="s">
+        <v>151</v>
+      </c>
+      <c r="O16" t="s">
+        <v>52</v>
+      </c>
+      <c r="P16" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2</v>
+      </c>
+      <c r="R16" t="n">
+        <v>4</v>
+      </c>
+      <c r="S16" t="n">
+        <v>2</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>3</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>58435</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>152</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>153</v>
+      </c>
+      <c r="J17" t="s">
+        <v>154</v>
+      </c>
+      <c r="K17" t="s">
+        <v>155</v>
+      </c>
+      <c r="L17" t="s">
+        <v>156</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>157</v>
+      </c>
+      <c r="O17" t="s">
+        <v>86</v>
+      </c>
+      <c r="P17" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>4</v>
+      </c>
+      <c r="R17" t="n">
+        <v>5</v>
+      </c>
+      <c r="S17" t="n">
+        <v>4</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>4</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>58435</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>158</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>159</v>
+      </c>
+      <c r="J18" t="s">
+        <v>160</v>
+      </c>
+      <c r="K18" t="s">
+        <v>161</v>
+      </c>
+      <c r="L18" t="s">
+        <v>162</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s"/>
+      <c r="O18" t="s"/>
+      <c r="P18" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>5</v>
+      </c>
+      <c r="R18" t="n">
+        <v>4</v>
+      </c>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>4</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>58435</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>164</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
+        <v>165</v>
+      </c>
+      <c r="J19" t="s">
+        <v>166</v>
+      </c>
+      <c r="K19" t="s">
+        <v>167</v>
+      </c>
+      <c r="L19" t="s">
+        <v>168</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" t="s">
+        <v>169</v>
+      </c>
+      <c r="O19" t="s">
+        <v>59</v>
+      </c>
+      <c r="P19" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>2</v>
+      </c>
+      <c r="R19" t="n">
+        <v>4</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>2</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>58435</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>170</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
+        <v>171</v>
+      </c>
+      <c r="J20" t="s">
+        <v>172</v>
+      </c>
+      <c r="K20" t="s">
+        <v>173</v>
+      </c>
+      <c r="L20" t="s">
+        <v>174</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1</v>
+      </c>
+      <c r="N20" t="s">
+        <v>175</v>
+      </c>
+      <c r="O20" t="s">
+        <v>59</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1</v>
+      </c>
+      <c r="R20" t="n">
+        <v>2</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>1</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>58435</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" t="s">
+        <v>176</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>177</v>
+      </c>
+      <c r="J21" t="s">
+        <v>178</v>
+      </c>
+      <c r="K21" t="s">
+        <v>179</v>
+      </c>
+      <c r="L21" t="s">
+        <v>180</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+      <c r="N21" t="s">
+        <v>181</v>
+      </c>
+      <c r="O21" t="s">
+        <v>52</v>
+      </c>
+      <c r="P21" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1</v>
+      </c>
+      <c r="R21" t="n">
+        <v>3</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>1</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>58435</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s">
+        <v>183</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
+        <v>184</v>
+      </c>
+      <c r="J22" t="s">
+        <v>185</v>
+      </c>
+      <c r="K22" t="s">
+        <v>186</v>
+      </c>
+      <c r="L22" t="s">
+        <v>187</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1</v>
+      </c>
+      <c r="N22" t="s">
+        <v>188</v>
+      </c>
+      <c r="O22" t="s">
+        <v>52</v>
+      </c>
+      <c r="P22" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1</v>
+      </c>
+      <c r="R22" t="n">
+        <v>2</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>58435</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" t="s">
+        <v>190</v>
+      </c>
+      <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" t="s">
+        <v>191</v>
+      </c>
+      <c r="J23" t="s">
+        <v>192</v>
+      </c>
+      <c r="K23" t="s">
+        <v>193</v>
+      </c>
+      <c r="L23" t="s">
+        <v>194</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1</v>
+      </c>
+      <c r="N23" t="s"/>
+      <c r="O23" t="s"/>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>195</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Dallas/Dallas_shard_600.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_600.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="218">
   <si>
     <t>STR#</t>
   </si>
@@ -147,6 +147,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Nina C</t>
+  </si>
+  <si>
     <t>06/15/2018</t>
   </si>
   <si>
@@ -177,6 +180,9 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
+    <t>starr9779</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d296530-r428566166-Nite_Star_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -198,6 +204,9 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>Kristie j</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d296530-r401115382-Nite_Star_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -216,6 +225,9 @@
     <t>I booked 2 nights through a travel site. Check in was easy and girl was very nice. They took made a photocopy of my DL and CC like most hotels do at checkin.  However, after I got home I noticed a $81.64 charge on my CC.  I called the hotel and she saw where the mistake was made, but had to wait for a manager to fix it the next day and I was to receive a call.  I ended up calling them back at 3:00pm.  This time I'm told by one of the managers that she does not see any charge on my CC.  I offered to text a copy to her, but she would not give me a phone number to do so.  She said I needed to fax it.  As though I have a fax machine. I'm now just going to let my CC company deal with this.  As far as the room goes the shower made so much noise and vibrated through the wall. I actually made the screw on the hot water handle fall off.  The bed had no top sheet after I took the comforter off the bed.  Called the front desk but the were fresh out of sheets! Got one from the maid the next day. Also on Friday night they had a "Glow Party" for 18yrs and over until 2:00am. There was screaming, yelling, burning rubber in the parking lot.  I was...I booked 2 nights through a travel site. Check in was easy and girl was very nice. They took made a photocopy of my DL and CC like most hotels do at checkin.  However, after I got home I noticed a $81.64 charge on my CC.  I called the hotel and she saw where the mistake was made, but had to wait for a manager to fix it the next day and I was to receive a call.  I ended up calling them back at 3:00pm.  This time I'm told by one of the managers that she does not see any charge on my CC.  I offered to text a copy to her, but she would not give me a phone number to do so.  She said I needed to fax it.  As though I have a fax machine. I'm now just going to let my CC company deal with this.  As far as the room goes the shower made so much noise and vibrated through the wall. I actually made the screw on the hot water handle fall off.  The bed had no top sheet after I took the comforter off the bed.  Called the front desk but the were fresh out of sheets! Got one from the maid the next day. Also on Friday night they had a "Glow Party" for 18yrs and over until 2:00am. There was screaming, yelling, burning rubber in the parking lot.  I was very concerned for my rental car.  But all was fine with it the next morning. The parking lot was packed and hotel guest could not even park at the hotel.  I probably would have not written a review had it not been the CC situation.  People need to now that this place is not legit.  Go someplace else!More</t>
   </si>
   <si>
+    <t>ESMER G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d296530-r320435388-Nite_Star_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -237,6 +249,9 @@
     <t>This Was the most discusting hotel I ever seen in my life! I reserved the room on line..does not look anything like the picture's on their website!when I enter the lobby ..I completely wanted tO run out I thought it was A nightmare! I wanted to try canceled they had already charged my card..for the two days...I was so mad....got to the room  iT STUNK..the tub was dirty discusting I had to put plastics bags so i wouldn't step on it..the beds smell..had to go to Walmart gET my own blankets.and people outside drinking and bBQ..don't rec commend at all I thought because it was close to the stadium it was gonna be a nice hotel!..they should change the name to America's  best in and hell suite's!More</t>
   </si>
   <si>
+    <t>Joe  D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d296530-r307650536-Nite_Star_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -258,6 +273,9 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
+    <t>seancare</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d296530-r297345248-Nite_Star_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -282,6 +300,9 @@
     <t>We arrived to check in and were gonna stay 5 nights, the lady at the front desk advised us would be cheaper to pay the weekly rate so we did. It was Thursda, Friday room was cleaned and fresh towels. Sat nothing I then asked the housekeeper for towels she said no not your day. I called the front desk to complain and was informed because we paid weekly rate they only serviced rooms on Friday and Tuesday.  We were never informed about this. I ended up washing out towels.  I went to the desk to ask for toilet paper and was told no til I pitched a fit I said I played you $320 for five days and to wash my own towels asked for GM phone number the next day problem solved. Clean decent motel not much in the area. Close to stadiums.More</t>
   </si>
   <si>
+    <t>Jose A R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d296530-r254266326-Nite_Star_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -300,6 +321,9 @@
     <t>Booked this hotel online on my way to Dallas. Total price was $80 with tax. They advertised double room; double queen beds. Instead we got a single double full beds. The hotel is old, but it looks clean in the outside. The front desk staff is very friendly and there is a Puertorican restaurant/club attached to the lobby and a club/lounge upstairs from the lobby. The hotel is located next to the highway so try to get a room away from the entrance. Parking is limited at night; I said this because you will have to compete for parking with people going into the clubs. They have a guy managing the parking but they were allowing people to park by the rooms so expect drunk people and a lot of noise next to your room at about 2 am. Walls are thin and you can clearly hear people talking and walking in the room next to us. I stayed in the 2nd flr and I feel sorry for the guy that stayed in the 1st flr. Hotel has a pool, ice machine next to the lobby and they serve danishes and muffins with coffee from 0630 to 0830. There is a Denny's down the road in case that you didn't care about this review and decided to stay. Or maybe you are here traveling to watch your team getting beat by the Cowboys, then this is the right hotel for...Booked this hotel online on my way to Dallas. Total price was $80 with tax. They advertised double room; double queen beds. Instead we got a single double full beds. The hotel is old, but it looks clean in the outside. The front desk staff is very friendly and there is a Puertorican restaurant/club attached to the lobby and a club/lounge upstairs from the lobby. The hotel is located next to the highway so try to get a room away from the entrance. Parking is limited at night; I said this because you will have to compete for parking with people going into the clubs. They have a guy managing the parking but they were allowing people to park by the rooms so expect drunk people and a lot of noise next to your room at about 2 am. Walls are thin and you can clearly hear people talking and walking in the room next to us. I stayed in the 2nd flr and I feel sorry for the guy that stayed in the 1st flr. Hotel has a pool, ice machine next to the lobby and they serve danishes and muffins with coffee from 0630 to 0830. There is a Denny's down the road in case that you didn't care about this review and decided to stay. Or maybe you are here traveling to watch your team getting beat by the Cowboys, then this is the right hotel for you! My room smell ok to be an old room. The room was clean except under the beds. Water pressure was great; A/C works great; room comes with a flat screen TV, microwave, table and fridge. Also, my room came with a small cockroach that I smashed on the carpet (see pic). Word of advice, keep all your bags on top of the table and spend some extra bucks and get yourself something better.More</t>
   </si>
   <si>
+    <t>Brenda S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d296530-r249004701-Nite_Star_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -327,6 +351,9 @@
     <t>Trashy and very outdated.  The smell is terrible!  Very dark and scary. Booked 3 nights.  Didn't even stay 1 night, left within 30 minutes They would only refund 2 nights!  Very unprofessional!!Went down the road and stayed at Admiral Hotel.  Same price.  Night and day differance!!!More</t>
   </si>
   <si>
+    <t>Bob H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d296530-r244029326-Nite_Star_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -348,6 +375,9 @@
     <t>I am always apprehensive about places with the word 'best' in them. But at least it wasn't the 'worst' by any means. It's a bit dated but well laid-out. It's also right off the highway so I would recommend a room that is set back from the road, it makes a BIG difference. I booked a Deluxe room but when I got there was given a Standard, even though they insisted it was a Deluxe. After about 3 hours I got moved to a Deluxe (a real Deluxe this time). But the fridge wasn't as nice, the A/C was noisy and there were some bad plaster repairs on the ceiling. At least it is convenient to the highway and you can actually walk to 6 restaurants, one of which is a small Cuban place adjacent to the hotel lobby. Overall a 3-minus but still not offensive by any means.More</t>
   </si>
   <si>
+    <t>freddyp0</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d296530-r161174689-Nite_Star_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -363,6 +393,9 @@
     <t xml:space="preserve">Pulling up it seems run down and old but the inside of rooms are pretty nice. NO bugs or dirty bathrooms.  Housekeeper did a good job. Tv's are a bit old they might want to upgrade pretty soon. Water pressure was good. Bed kinda stiff but it did its job. Everyone is really nice! Overall if you are on a budget this place is good. And i read other reviews but i think they have new management and are turning things around. </t>
   </si>
   <si>
+    <t>Genipher</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d296530-r151053501-Nite_Star_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -390,6 +423,9 @@
     <t>I stayed there last night and it was the most horrible experience ever. There was a car that came through the iron fence and then gunshots. The police was there all night and nobody was allowed to come or go. The rooms are not up to standard and roaches everywhere. The mattress was the most disgusting thing I have ever slept on. I do not recommend my dog to go there much less people...More</t>
   </si>
   <si>
+    <t>Jessica G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d296530-r150694560-Nite_Star_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -411,6 +447,9 @@
     <t>the staff was very nice and helpful...the room was clean.....and i was glad my skin did not itch from sleeping in a dirty room like some other hotels.... Me and my husband had a good time, privacy, and finally got a chance to relax... :)More</t>
   </si>
   <si>
+    <t>mary s</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d296530-r135710681-Nite_Star_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -438,6 +477,9 @@
     <t>The people who run this hotel were very nice but the whole place is just not good. We were in a room that had been updated as much as could be done in such an old hotel.The worst thing for us was the guest above us stomped around until 3am each night and sound like they were going to fall through the ceiling at any moment.There is nothing in walking distance from there.The pool was not very clean and no one to correct the rowdy kids that were in it.Overall our stay was pretty miserable and the staff offered us snacks or drinks to make up for not getting any sleep. This is a cheap place if you want to save money but for sure you get what you pay for in this hotel.More</t>
   </si>
   <si>
+    <t>Scholarlove</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d296530-r132072003-Nite_Star_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -456,6 +498,9 @@
     <t>We checked in at 4 and got back and went out to pool, came back to a terrible leak from ceiling in bathroom and the jacuzzi tub (the only reason I booked this hotel for me and my new fiancé) would not drain. The manager finally called me back herself and would not give us any refund - we are stuck for another night in a 2/10 hotel. The room is small,smells like a cheap motel, and the light switches are from the 1970s. This place may be reasonably priced but NOT worth the money or time!!! And we are on the bottom floor and can hear every single step the people above us make. We can even hear them talking. Sheets were soft was the ONLY nice thing about this hotel!!!!More</t>
   </si>
   <si>
+    <t>Mark G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d296530-r118630672-Nite_Star_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -474,6 +519,9 @@
     <t>May 2011</t>
   </si>
   <si>
+    <t>m186031</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d296530-r80597962-Nite_Star_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -490,6 +538,9 @@
   </si>
   <si>
     <t>September 2010</t>
+  </si>
+  <si>
+    <t>aailski</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d296530-r67829976-Nite_Star_Inn_Suites-Arlington_Texas.html</t>
@@ -518,6 +569,9 @@
 The only downside was...The Rodeway Inn was brilliant for us.  I couldn't have expected a better place to go for the pittence I paid.  And even then, I expected far worse than what we got.The reception staff were brilliant, and very helpful.  They would allow you tp use their iternet facilities behind the desk whenever needed to arrange flights/buses/Facebook etc, and the young gentleman Van was truly hilarious, and we're still in touch with him.The bathroom was very small, and you could pretty much wash your hair and sit on the toilet at the same time, but it was fine for what we needed, and there was plenty of hot water and towels.  The sink area was huge with a big mirror, and well-lit, not that you could do your makeup to any effect in the heat!  The air conditioning may have been a little noisy, but it was very well-received.  I think we would have melted without it.The pool wasn't open when we arrived, but after a great deal of bullying the manager (Santiago) into getting it sorted, our lovely receptionist Van had gotten it opened by our second day.  It's a small pool, but it's never busy, and the most we shared it with were two quiet girls.  There are ice-creams and drinks on sale all day, too, so it was nice to just relax.  It's a total suntrap and perfect for a tan.The only downside was the breakfast option, as it was very basic and only included a few pastries and coffee/tea.  However, the staff were always at hand to recommend places to eat and hand out take-away menus, and across the road is a fantastic Chinese all-you-can-eat, which was really nice.  Failing that, there's a Wendy's next door!Also, another disappointment is the location.  Arlington offers very little in the way of public transprt so you really do need to get cabs unless you're driving.  There's an Avis car hire next to the aforementioned Chinese, so it isn't really a hardship.  Six Flags Over Texas is visible from the rooms, and isn't that far a walk.  It's more a little nerve-wracking walking alongside the freeway!  Oh, and after a full day at the theme park, don't expect to have enough energy to walk it back again!  The Greyhound bus station isn't that far away either, maybe a ten-minute drive?  But then, you can't blame the hotel for public transport.A little way down the road (about 3mins at my slow pace) is a garage offering plenty of food, drink, cigarettes etc, and there are ATMs everywhere.  Not far from the garage is a divine little restaurant called Saltgrass which serves the best steaks in Texas, I'm sure of it.  The staff were excellent there, too.  If you decide to head little further out into the entertainment district there's plenty to do, but alas, we only dragged ourselves there late on, and simply headed to Sherlock's Bar for a good few cold beers.As a side note - Sherlocks is an English-themed bar, and I did not have high hopes!  I hate English bars.  However, this place is FANTASTIC.  I highly recommend it.  It is a little strange that the patio is non-smoking, and inside is smoking, but as a pair of chimmneys, it suit us brilliantly :)  They have a big selection of live entertainment on, and karaoke was pretty amusing.  They have a brilliant choice of food and drinks, and everything we had (bar a few badly-chosen cocktails) tasted wonderful.  IOf you want to have a night out, but don't like crawling bars, stay in Sherlocks, if you DO like crawling, there's a TGI Fridays, Hooters, and more across the concourse, with shops and restaurants dotted around in easy reach.All in all, the Rodeway Inn was in a good location, really, it's just that Arlington itself is a bit spartan.  The staff were brilliant, the pool was much needed, and the rooms were lovely and clean.  We loved it, and would definitely go back.  We just wouldn't get a taxi from the airport unless they knew where they were going, as it is situated on a little service road that nobody knows about.  If you go, ask for them to come off at Lamar Blvd!More</t>
   </si>
   <si>
+    <t>Resque</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d296530-r50725886-Nite_Star_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -536,6 +590,9 @@
     <t>December 2009</t>
   </si>
   <si>
+    <t>disneyprincess1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d296530-r32714631-Nite_Star_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -552,6 +609,9 @@
   </si>
   <si>
     <t>May 2009</t>
+  </si>
+  <si>
+    <t>silversprings76</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d296530-r23410420-Nite_Star_Inn_Suites-Arlington_Texas.html</t>
@@ -577,6 +637,9 @@
 We left...I am writing this in hopes it will prevent anybody else from having a experience as we did. Upon traveling to our new duty station(military family) we decided to stop at rodeway inn in arlington texas , as we always usually choose choice hotels when possible. BIG MISTAKE!  The night manager who was foreign was on the phone talking and could care less about hanging up so he could check me in, upon arriving in first of 3 rooms that night i saw a roach crawling into the microwave back area, then one by fridge. I go back and tell him and ask for another room, he sends me directly upstairs (when we had small kids and rest of hotel was empty) and gives us a room that in the sink was what appeared to be backwash from the drain that was DISGUSTING! Last room he issues us is semi ok but did find a small roach crawling on carpet which i promptly had to step on, it appeared to be a handicap room and was probably used less and the only available room that was not clean. I literally cringed as i lay down in the bed and prayed that i could just mke it through the night. The lobby in the morning was locked when it should have been open for cont breakfast. Manager finally shows up and looks at me like "what do you want"?We left ate at mcdonalds across the way and was jut flat out horrified at what we just had to endure. This is a place that is not worthy of the rodeway inn name or choice hotels!!!More</t>
   </si>
   <si>
+    <t>Mama_Cita_72</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d296530-r15016058-Nite_Star_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -596,6 +659,9 @@
   </si>
   <si>
     <t>THIS WAS THE WORST HOTEL I HAVE EVER STAYED IN. THERE WAS A ROACH COMING OUT OF THE MICROWAVE VENT, THE CHAIN ON THE DOOR WAS NO LONGER THERE,spiders were in the tub, and 1 crawling on the wall, spider webs were behind the door. The beds were so uncomfortable! I kept checking my phone for the time to see if it was time to get up because I couldnt sleep. The indoor pool DOES NOT EXIST! When I called the desk they wouldnt even answer the phone. If you need a place by six flags and reasonable do Ranger Hotel, Every other hotel there was nice, but Ranger is right avross the street from 6-flags, and reasonable. I even pulled a desk infront of the front door because it didnt feel safe without a lock!More</t>
+  </si>
+  <si>
+    <t>A TripAdvisor Member</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d296530-r2449948-Nite_Star_Inn_Suites-Arlington_Texas.html</t>
@@ -1128,43 +1194,47 @@
       <c r="A2" t="n">
         <v>58435</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>169515</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M2" t="n">
         <v>1</v>
       </c>
       <c r="N2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -1184,50 +1254,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>58435</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>169516</v>
+      </c>
+      <c r="C3" t="s">
+        <v>54</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="O3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1241,41 +1315,45 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>58435</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>169517</v>
+      </c>
+      <c r="C4" t="s">
+        <v>62</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="K4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="L4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="M4" t="n">
         <v>1</v>
@@ -1294,50 +1372,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>58435</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>169518</v>
+      </c>
+      <c r="C5" t="s">
+        <v>69</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="J5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="K5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="L5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="O5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1351,50 +1433,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>58435</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>169519</v>
+      </c>
+      <c r="C6" t="s">
+        <v>77</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="J6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="K6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="L6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="O6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -1408,50 +1494,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>58435</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>169520</v>
+      </c>
+      <c r="C7" t="s">
+        <v>85</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="J7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="K7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="L7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="M7" t="n">
         <v>3</v>
       </c>
       <c r="N7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="O7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -1465,41 +1555,45 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>58435</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>48447</v>
+      </c>
+      <c r="C8" t="s">
+        <v>94</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="J8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="K8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="L8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="M8" t="n">
         <v>2</v>
@@ -1518,50 +1612,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>58435</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>3442</v>
+      </c>
+      <c r="C9" t="s">
+        <v>101</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="J9" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="K9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="L9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="O9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -1579,56 +1677,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="X9" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="Y9" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>58435</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>3896</v>
+      </c>
+      <c r="C10" t="s">
+        <v>111</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="J10" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="K10" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="L10" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="M10" t="n">
         <v>3</v>
       </c>
       <c r="N10" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="O10" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="P10" t="n">
         <v>3</v>
@@ -1648,41 +1750,45 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>58435</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>169521</v>
+      </c>
+      <c r="C11" t="s">
+        <v>119</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="J11" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="K11" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="L11" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="M11" t="n">
         <v>4</v>
@@ -1711,50 +1817,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>58435</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>169522</v>
+      </c>
+      <c r="C12" t="s">
+        <v>125</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="J12" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="K12" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="L12" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="O12" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="P12" t="n">
         <v>1</v>
@@ -1776,56 +1886,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="X12" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="Y12" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>58435</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>15588</v>
+      </c>
+      <c r="C13" t="s">
+        <v>135</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="J13" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="K13" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="L13" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="O13" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P13" t="n">
         <v>5</v>
@@ -1847,56 +1961,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="X13" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="Y13" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>58435</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>104005</v>
+      </c>
+      <c r="C14" t="s">
+        <v>143</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="G14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="J14" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="K14" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="L14" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="M14" t="n">
         <v>2</v>
       </c>
       <c r="N14" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="O14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P14" t="n">
         <v>3</v>
@@ -1918,47 +2036,51 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="X14" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="Y14" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>58435</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>169523</v>
+      </c>
+      <c r="C15" t="s">
+        <v>153</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="G15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="J15" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="K15" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="L15" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="M15" t="n">
         <v>1</v>
@@ -1985,56 +2107,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="X15" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="Y15" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>58435</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>1287</v>
+      </c>
+      <c r="C16" t="s">
+        <v>160</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="G16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="J16" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="K16" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="L16" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="M16" t="n">
         <v>2</v>
       </c>
       <c r="N16" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="O16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P16" t="n">
         <v>3</v>
@@ -2058,50 +2184,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>58435</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>169524</v>
+      </c>
+      <c r="C17" t="s">
+        <v>167</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="G17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="J17" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="K17" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="L17" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="M17" t="n">
         <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="O17" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="P17" t="n">
         <v>4</v>
@@ -2125,41 +2255,45 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>58435</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>12898</v>
+      </c>
+      <c r="C18" t="s">
+        <v>174</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="G18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="J18" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="K18" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="L18" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
@@ -2188,50 +2322,54 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>58435</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>169525</v>
+      </c>
+      <c r="C19" t="s">
+        <v>181</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="G19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="J19" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="K19" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="L19" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
       <c r="N19" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
       <c r="O19" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P19" t="n">
         <v>3</v>
@@ -2255,50 +2393,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>58435</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>169526</v>
+      </c>
+      <c r="C20" t="s">
+        <v>188</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="G20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="J20" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="K20" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="L20" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
       <c r="N20" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="O20" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P20" t="n">
         <v>1</v>
@@ -2322,50 +2464,54 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>58435</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>169527</v>
+      </c>
+      <c r="C21" t="s">
+        <v>195</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
       <c r="G21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>177</v>
+        <v>197</v>
       </c>
       <c r="J21" t="s">
-        <v>178</v>
+        <v>198</v>
       </c>
       <c r="K21" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="L21" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
       <c r="N21" t="s">
-        <v>181</v>
+        <v>201</v>
       </c>
       <c r="O21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P21" t="n">
         <v>1</v>
@@ -2389,50 +2535,54 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>58435</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>169528</v>
+      </c>
+      <c r="C22" t="s">
+        <v>203</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="G22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>184</v>
+        <v>205</v>
       </c>
       <c r="J22" t="s">
-        <v>185</v>
+        <v>206</v>
       </c>
       <c r="K22" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="L22" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
       <c r="N22" t="s">
-        <v>188</v>
+        <v>209</v>
       </c>
       <c r="O22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P22" t="n">
         <v>1</v>
@@ -2454,41 +2604,45 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>189</v>
+        <v>210</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>58435</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>7</v>
+      </c>
+      <c r="C23" t="s">
+        <v>211</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>190</v>
+        <v>212</v>
       </c>
       <c r="G23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>191</v>
+        <v>213</v>
       </c>
       <c r="J23" t="s">
-        <v>192</v>
+        <v>214</v>
       </c>
       <c r="K23" t="s">
-        <v>193</v>
+        <v>215</v>
       </c>
       <c r="L23" t="s">
-        <v>194</v>
+        <v>216</v>
       </c>
       <c r="M23" t="n">
         <v>1</v>
@@ -2507,7 +2661,7 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_600.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_600.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="292">
   <si>
     <t>STR#</t>
   </si>
@@ -147,21 +147,60 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>Nina C</t>
-  </si>
-  <si>
-    <t>06/15/2018</t>
+    <t>08/26/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d296530-r544465976-Nite_Star_Inn_Suites-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>30183</t>
+  </si>
+  <si>
+    <t>296530</t>
+  </si>
+  <si>
+    <t>544465976</t>
+  </si>
+  <si>
+    <t>12/01/2017</t>
+  </si>
+  <si>
+    <t>DO NOT STAY HERE</t>
+  </si>
+  <si>
+    <t>From the moment I walked thru the lobby door I knew this place was bad. The pictures will justify my statements. There was blood smeared on the bathroom door as well as bugs in the room. No mattress covers and everything was just dirty. There was a crack in the wall above the ac unit that led straight to the outside. The lady at the front desk handed up towels with stains all over them (wasn’t able to take a pic due to handing them right back). When I discovered everything wrong in the room, the lady at the front desk told me we couldn’t be refunded for either night we booked even though we hadn’t stayed either of the nights so far. We got our money back for the second night but not the first night. This was an absolutely terrible experience. Thank goodness there was another hotel with availability to meet our needs. I would have rather slept on the side walk than in that room. I would advise anyone looking at this hotel to save your money. Oh and one more point, we stayed at a gorgeous, clean room for a FRACTION of the cost of this motel. RUUUUUUNNNNN MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>From the moment I walked thru the lobby door I knew this place was bad. The pictures will justify my statements. There was blood smeared on the bathroom door as well as bugs in the room. No mattress covers and everything was just dirty. There was a crack in the wall above the ac unit that led straight to the outside. The lady at the front desk handed up towels with stains all over them (wasn’t able to take a pic due to handing them right back). When I discovered everything wrong in the room, the lady at the front desk told me we couldn’t be refunded for either night we booked even though we hadn’t stayed either of the nights so far. We got our money back for the second night but not the first night. This was an absolutely terrible experience. Thank goodness there was another hotel with availability to meet our needs. I would have rather slept on the side walk than in that room. I would advise anyone looking at this hotel to save your money. Oh and one more point, we stayed at a gorgeous, clean room for a FRACTION of the cost of this motel. RUUUUUUNNNNN More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d296530-r501705798-Nite_Star_Inn_Suites-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>501705798</t>
+  </si>
+  <si>
+    <t>07/13/2017</t>
+  </si>
+  <si>
+    <t>good hotel for the price</t>
+  </si>
+  <si>
+    <t>good hotel for the price!!!!.Free Wifi !!!!very good beds.near to six flags.near to cowboy stadium.we enjoy really stay there because is near to several locations.also is very nice to have include a breakfast for all the family.also it was very nice to wit until arrive to the hotel and also personal at desk was very helpful. they give us a call just to confirm our arrival.</t>
+  </si>
+  <si>
+    <t>May 2017</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d296530-r441201632-Nite_Star_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
-    <t>30183</t>
-  </si>
-  <si>
-    <t>296530</t>
-  </si>
-  <si>
     <t>441201632</t>
   </si>
   <si>
@@ -177,12 +216,6 @@
     <t>November 2016</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
-    <t>starr9779</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d296530-r428566166-Nite_Star_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -204,9 +237,6 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
-    <t>Kristie j</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d296530-r401115382-Nite_Star_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -225,7 +255,43 @@
     <t>I booked 2 nights through a travel site. Check in was easy and girl was very nice. They took made a photocopy of my DL and CC like most hotels do at checkin.  However, after I got home I noticed a $81.64 charge on my CC.  I called the hotel and she saw where the mistake was made, but had to wait for a manager to fix it the next day and I was to receive a call.  I ended up calling them back at 3:00pm.  This time I'm told by one of the managers that she does not see any charge on my CC.  I offered to text a copy to her, but she would not give me a phone number to do so.  She said I needed to fax it.  As though I have a fax machine. I'm now just going to let my CC company deal with this.  As far as the room goes the shower made so much noise and vibrated through the wall. I actually made the screw on the hot water handle fall off.  The bed had no top sheet after I took the comforter off the bed.  Called the front desk but the were fresh out of sheets! Got one from the maid the next day. Also on Friday night they had a "Glow Party" for 18yrs and over until 2:00am. There was screaming, yelling, burning rubber in the parking lot.  I was...I booked 2 nights through a travel site. Check in was easy and girl was very nice. They took made a photocopy of my DL and CC like most hotels do at checkin.  However, after I got home I noticed a $81.64 charge on my CC.  I called the hotel and she saw where the mistake was made, but had to wait for a manager to fix it the next day and I was to receive a call.  I ended up calling them back at 3:00pm.  This time I'm told by one of the managers that she does not see any charge on my CC.  I offered to text a copy to her, but she would not give me a phone number to do so.  She said I needed to fax it.  As though I have a fax machine. I'm now just going to let my CC company deal with this.  As far as the room goes the shower made so much noise and vibrated through the wall. I actually made the screw on the hot water handle fall off.  The bed had no top sheet after I took the comforter off the bed.  Called the front desk but the were fresh out of sheets! Got one from the maid the next day. Also on Friday night they had a "Glow Party" for 18yrs and over until 2:00am. There was screaming, yelling, burning rubber in the parking lot.  I was very concerned for my rental car.  But all was fine with it the next morning. The parking lot was packed and hotel guest could not even park at the hotel.  I probably would have not written a review had it not been the CC situation.  People need to now that this place is not legit.  Go someplace else!More</t>
   </si>
   <si>
-    <t>ESMER G</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d296530-r356276909-Nite_Star_Inn_Suites-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>356276909</t>
+  </si>
+  <si>
+    <t>03/17/2016</t>
+  </si>
+  <si>
+    <t>Great stay for what I paid</t>
+  </si>
+  <si>
+    <t>My single bed room was $79 for the night and the accommodations were adequate. Not the best hotel I've ever stayed in, but it was definitely clean, the staff were responsive and I could easily get to the conference I was in town for. I'll be back in May and I'll be staying there again.</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d296530-r325762161-Nite_Star_Inn_Suites-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>325762161</t>
+  </si>
+  <si>
+    <t>11/10/2015</t>
+  </si>
+  <si>
+    <t>Awful....just disgusting!</t>
+  </si>
+  <si>
+    <t>The online pictures were not anything like the facility when we drove up. We asked for a non smoking room, but actually the door did not even lock. The bed blanket was soiled, the water smelled like sewer water, there was food left in the refrigerator and the place smelled like a dirty laundry mat. It was awful! Do NOT reserve a room here.</t>
+  </si>
+  <si>
+    <t>November 2015</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d296530-r320435388-Nite_Star_Inn_Suites-Arlington_Texas.html</t>
@@ -249,9 +315,6 @@
     <t>This Was the most discusting hotel I ever seen in my life! I reserved the room on line..does not look anything like the picture's on their website!when I enter the lobby ..I completely wanted tO run out I thought it was A nightmare! I wanted to try canceled they had already charged my card..for the two days...I was so mad....got to the room  iT STUNK..the tub was dirty discusting I had to put plastics bags so i wouldn't step on it..the beds smell..had to go to Walmart gET my own blankets.and people outside drinking and bBQ..don't rec commend at all I thought because it was close to the stadium it was gonna be a nice hotel!..they should change the name to America's  best in and hell suite's!More</t>
   </si>
   <si>
-    <t>Joe  D</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d296530-r307650536-Nite_Star_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -273,9 +336,6 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
-    <t>seancare</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d296530-r297345248-Nite_Star_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -294,13 +354,43 @@
     <t>August 2015</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>We arrived to check in and were gonna stay 5 nights, the lady at the front desk advised us would be cheaper to pay the weekly rate so we did. It was Thursda, Friday room was cleaned and fresh towels. Sat nothing I then asked the housekeeper for towels she said no not your day. I called the front desk to complain and was informed because we paid weekly rate they only serviced rooms on Friday and Tuesday.  We were never informed about this. I ended up washing out towels.  I went to the desk to ask for toilet paper and was told no til I pitched a fit I said I played you $320 for five days and to wash my own towels asked for GM phone number the next day problem solved. Clean decent motel not much in the area. Close to stadiums.More</t>
   </si>
   <si>
-    <t>Jose A R</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d296530-r290917989-Nite_Star_Inn_Suites-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>290917989</t>
+  </si>
+  <si>
+    <t>07/20/2015</t>
+  </si>
+  <si>
+    <t>Terrible</t>
+  </si>
+  <si>
+    <t>The room was ok the walls were paper thin and me an my children ages 10 11 and 17 got to hear the neighbors having sex ! This place is horrible! Breakfast was no good!!! The pool was full of hair ! Towels were limited ! No pool towels were available!</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d296530-r262876011-Nite_Star_Inn_Suites-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>262876011</t>
+  </si>
+  <si>
+    <t>03/31/2015</t>
+  </si>
+  <si>
+    <t>Nasty</t>
+  </si>
+  <si>
+    <t>We didn't even stay an hour. The smell was horrible and I could barely breathe it was so musty. The location was very sketchy and we did not feel safe. Save yourself the disgust and head to a another hotel.</t>
+  </si>
+  <si>
+    <t>March 2015</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d296530-r254266326-Nite_Star_Inn_Suites-Arlington_Texas.html</t>
@@ -321,9 +411,6 @@
     <t>Booked this hotel online on my way to Dallas. Total price was $80 with tax. They advertised double room; double queen beds. Instead we got a single double full beds. The hotel is old, but it looks clean in the outside. The front desk staff is very friendly and there is a Puertorican restaurant/club attached to the lobby and a club/lounge upstairs from the lobby. The hotel is located next to the highway so try to get a room away from the entrance. Parking is limited at night; I said this because you will have to compete for parking with people going into the clubs. They have a guy managing the parking but they were allowing people to park by the rooms so expect drunk people and a lot of noise next to your room at about 2 am. Walls are thin and you can clearly hear people talking and walking in the room next to us. I stayed in the 2nd flr and I feel sorry for the guy that stayed in the 1st flr. Hotel has a pool, ice machine next to the lobby and they serve danishes and muffins with coffee from 0630 to 0830. There is a Denny's down the road in case that you didn't care about this review and decided to stay. Or maybe you are here traveling to watch your team getting beat by the Cowboys, then this is the right hotel for...Booked this hotel online on my way to Dallas. Total price was $80 with tax. They advertised double room; double queen beds. Instead we got a single double full beds. The hotel is old, but it looks clean in the outside. The front desk staff is very friendly and there is a Puertorican restaurant/club attached to the lobby and a club/lounge upstairs from the lobby. The hotel is located next to the highway so try to get a room away from the entrance. Parking is limited at night; I said this because you will have to compete for parking with people going into the clubs. They have a guy managing the parking but they were allowing people to park by the rooms so expect drunk people and a lot of noise next to your room at about 2 am. Walls are thin and you can clearly hear people talking and walking in the room next to us. I stayed in the 2nd flr and I feel sorry for the guy that stayed in the 1st flr. Hotel has a pool, ice machine next to the lobby and they serve danishes and muffins with coffee from 0630 to 0830. There is a Denny's down the road in case that you didn't care about this review and decided to stay. Or maybe you are here traveling to watch your team getting beat by the Cowboys, then this is the right hotel for you! My room smell ok to be an old room. The room was clean except under the beds. Water pressure was great; A/C works great; room comes with a flat screen TV, microwave, table and fridge. Also, my room came with a small cockroach that I smashed on the carpet (see pic). Word of advice, keep all your bags on top of the table and spend some extra bucks and get yourself something better.More</t>
   </si>
   <si>
-    <t>Brenda S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d296530-r249004701-Nite_Star_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -351,9 +438,6 @@
     <t>Trashy and very outdated.  The smell is terrible!  Very dark and scary. Booked 3 nights.  Didn't even stay 1 night, left within 30 minutes They would only refund 2 nights!  Very unprofessional!!Went down the road and stayed at Admiral Hotel.  Same price.  Night and day differance!!!More</t>
   </si>
   <si>
-    <t>Bob H</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d296530-r244029326-Nite_Star_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -375,7 +459,34 @@
     <t>I am always apprehensive about places with the word 'best' in them. But at least it wasn't the 'worst' by any means. It's a bit dated but well laid-out. It's also right off the highway so I would recommend a room that is set back from the road, it makes a BIG difference. I booked a Deluxe room but when I got there was given a Standard, even though they insisted it was a Deluxe. After about 3 hours I got moved to a Deluxe (a real Deluxe this time). But the fridge wasn't as nice, the A/C was noisy and there were some bad plaster repairs on the ceiling. At least it is convenient to the highway and you can actually walk to 6 restaurants, one of which is a small Cuban place adjacent to the hotel lobby. Overall a 3-minus but still not offensive by any means.More</t>
   </si>
   <si>
-    <t>freddyp0</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d296530-r237556056-Nite_Star_Inn_Suites-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>237556056</t>
+  </si>
+  <si>
+    <t>11/02/2014</t>
+  </si>
+  <si>
+    <t>Gross and Dirty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Picked up last minute tix for the Cowboys game and needed a place to stay. For 80+ dollars I expected this place to be nicer but it is trashy and very outdated. The beds had cigarette burns throughout the sheets and I refused to sleep under them. Bathroom was very odd but not terrible compared to the rest of the room. The shower curtain rod stuck out and anyone over 6ft be careful not to hit your head. All in all I would not come back to "Americas Best"! </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d296530-r237492197-Nite_Star_Inn_Suites-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>237492197</t>
+  </si>
+  <si>
+    <t>11/01/2014</t>
+  </si>
+  <si>
+    <t>One long night</t>
+  </si>
+  <si>
+    <t>Oct.2014.This place..Scary.Nasty/sticky carpet.Wore socks in the room.Beds comfy, but baby roaches on night stands . We were supposed to stay two nights..No Way! Please believe the reviews. Run! Run!.</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d296530-r161174689-Nite_Star_Inn_Suites-Arlington_Texas.html</t>
@@ -393,9 +504,6 @@
     <t xml:space="preserve">Pulling up it seems run down and old but the inside of rooms are pretty nice. NO bugs or dirty bathrooms.  Housekeeper did a good job. Tv's are a bit old they might want to upgrade pretty soon. Water pressure was good. Bed kinda stiff but it did its job. Everyone is really nice! Overall if you are on a budget this place is good. And i read other reviews but i think they have new management and are turning things around. </t>
   </si>
   <si>
-    <t>Genipher</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d296530-r151053501-Nite_Star_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -423,9 +531,6 @@
     <t>I stayed there last night and it was the most horrible experience ever. There was a car that came through the iron fence and then gunshots. The police was there all night and nobody was allowed to come or go. The rooms are not up to standard and roaches everywhere. The mattress was the most disgusting thing I have ever slept on. I do not recommend my dog to go there much less people...More</t>
   </si>
   <si>
-    <t>Jessica G</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d296530-r150694560-Nite_Star_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -447,7 +552,52 @@
     <t>the staff was very nice and helpful...the room was clean.....and i was glad my skin did not itch from sleeping in a dirty room like some other hotels.... Me and my husband had a good time, privacy, and finally got a chance to relax... :)More</t>
   </si>
   <si>
-    <t>mary s</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d296530-r141516410-Nite_Star_Inn_Suites-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>141516410</t>
+  </si>
+  <si>
+    <t>09/28/2012</t>
+  </si>
+  <si>
+    <t>Check before putting your bags down</t>
+  </si>
+  <si>
+    <t>This is a late review, which I thought I had already submitted. Me and my fiance attended a Cowboy/Rams game in Ocober 2011. This place was affordable and close to the main attraction. I agree with past reviews that the customer service was not good, and the continental breakfast was basically nothing. Don't depend on it!!! When we got there there was no donuts only coffee and oatmeal. (Nothing made, just nuke it). With my fiance being diabetic, this wasn't going to work. We did however go to the Walmart across the stadium and get some groceries to fill up the fridge. Room did not have matching furniture, and the evening we returned, Switches for lamps did not work, because of no lightbulbs in them. Slowly walked across room only to stumble in the dark and hurt my knee. Hot water to shower did not work. Plumber came in and mickey moused fixed the valve with toilet paper. We asked for room change, they did but gave us another troubled room. Was able to use the suite to get ready, but never offered to give us that room since the hot tub did not work. Good Grief!!!Best place out of the trip was the game, San Antonio, and the Trail Dust Steak House in Arlington!Don't use the taxi service they offer, too expensive and if you are not on time, he'll leave.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2011</t>
+  </si>
+  <si>
+    <t>Americasbestinns1175, Guest Relations Manager at Nite Star Inn &amp; Suites, responded to this reviewResponded January 24, 2013</t>
+  </si>
+  <si>
+    <t>Responded January 24, 2013</t>
+  </si>
+  <si>
+    <t>This is a late review, which I thought I had already submitted. Me and my fiance attended a Cowboy/Rams game in Ocober 2011. This place was affordable and close to the main attraction. I agree with past reviews that the customer service was not good, and the continental breakfast was basically nothing. Don't depend on it!!! When we got there there was no donuts only coffee and oatmeal. (Nothing made, just nuke it). With my fiance being diabetic, this wasn't going to work. We did however go to the Walmart across the stadium and get some groceries to fill up the fridge. Room did not have matching furniture, and the evening we returned, Switches for lamps did not work, because of no lightbulbs in them. Slowly walked across room only to stumble in the dark and hurt my knee. Hot water to shower did not work. Plumber came in and mickey moused fixed the valve with toilet paper. We asked for room change, they did but gave us another troubled room. Was able to use the suite to get ready, but never offered to give us that room since the hot tub did not work. Good Grief!!!Best place out of the trip was the game, San Antonio, and the Trail Dust Steak House in Arlington!Don't use the taxi service they offer, too expensive and if you are not on time, he'll leave.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d296530-r141036485-Nite_Star_Inn_Suites-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>141036485</t>
+  </si>
+  <si>
+    <t>09/23/2012</t>
+  </si>
+  <si>
+    <t>Never Ever go here!</t>
+  </si>
+  <si>
+    <t>The room smelled, there was sour milk spilled on a shelf and the maids refused to clean, the carpet was so dirty that my 10 month old could not crawl on it without being covered in black filth, the electricity flashed on and off, m-f breakfast consisted of your choice of about 3 donuts.  Staff was rude and unhelpful and would not refund our money when we could not stand the filth any longer.  The manager was never available to adress our concerns with and would not return our phone calls.  The maintence man suggested that we switch rooms (the only helpful/courteous person here)... however housekeeping took over 2 hours to ready the room before we gave up and left.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>The room smelled, there was sour milk spilled on a shelf and the maids refused to clean, the carpet was so dirty that my 10 month old could not crawl on it without being covered in black filth, the electricity flashed on and off, m-f breakfast consisted of your choice of about 3 donuts.  Staff was rude and unhelpful and would not refund our money when we could not stand the filth any longer.  The manager was never available to adress our concerns with and would not return our phone calls.  The maintence man suggested that we switch rooms (the only helpful/courteous person here)... however housekeeping took over 2 hours to ready the room before we gave up and left.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d296530-r135710681-Nite_Star_Inn_Suites-Arlington_Texas.html</t>
@@ -468,18 +618,9 @@
     <t>July 2012</t>
   </si>
   <si>
-    <t>Americasbestinns1175, Guest Relations Manager at Nite Star Inn &amp; Suites, responded to this reviewResponded January 24, 2013</t>
-  </si>
-  <si>
-    <t>Responded January 24, 2013</t>
-  </si>
-  <si>
     <t>The people who run this hotel were very nice but the whole place is just not good. We were in a room that had been updated as much as could be done in such an old hotel.The worst thing for us was the guest above us stomped around until 3am each night and sound like they were going to fall through the ceiling at any moment.There is nothing in walking distance from there.The pool was not very clean and no one to correct the rowdy kids that were in it.Overall our stay was pretty miserable and the staff offered us snacks or drinks to make up for not getting any sleep. This is a cheap place if you want to save money but for sure you get what you pay for in this hotel.More</t>
   </si>
   <si>
-    <t>Scholarlove</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d296530-r132072003-Nite_Star_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -498,9 +639,6 @@
     <t>We checked in at 4 and got back and went out to pool, came back to a terrible leak from ceiling in bathroom and the jacuzzi tub (the only reason I booked this hotel for me and my new fiancé) would not drain. The manager finally called me back herself and would not give us any refund - we are stuck for another night in a 2/10 hotel. The room is small,smells like a cheap motel, and the light switches are from the 1970s. This place may be reasonably priced but NOT worth the money or time!!! And we are on the bottom floor and can hear every single step the people above us make. We can even hear them talking. Sheets were soft was the ONLY nice thing about this hotel!!!!More</t>
   </si>
   <si>
-    <t>Mark G</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d296530-r118630672-Nite_Star_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -519,7 +657,40 @@
     <t>May 2011</t>
   </si>
   <si>
-    <t>m186031</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d296530-r116864253-Nite_Star_Inn_Suites-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>116864253</t>
+  </si>
+  <si>
+    <t>08/17/2011</t>
+  </si>
+  <si>
+    <t>Not friendly towards people with disabilities</t>
+  </si>
+  <si>
+    <t>No handicap pool lift available so we couldn't enjoy the pool</t>
+  </si>
+  <si>
+    <t>July 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d296530-r91253169-Nite_Star_Inn_Suites-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>91253169</t>
+  </si>
+  <si>
+    <t>12/31/2010</t>
+  </si>
+  <si>
+    <t>The Worst Hotel I have ever stayed at</t>
+  </si>
+  <si>
+    <t>This hotel had a great price. The outside looks run down, but when you get in the room it looks decent. However, we experinced bugs in the bathroom and the room as well as plumbing issues. Also, the walls are paper thin you can here everything your neightbor is doing. My husband and I came here for a getaway from the daily grind and now are going to another hotel for our second night.</t>
+  </si>
+  <si>
+    <t>December 2010</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d296530-r80597962-Nite_Star_Inn_Suites-Arlington_Texas.html</t>
@@ -538,9 +709,6 @@
   </si>
   <si>
     <t>September 2010</t>
-  </si>
-  <si>
-    <t>aailski</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d296530-r67829976-Nite_Star_Inn_Suites-Arlington_Texas.html</t>
@@ -569,9 +737,6 @@
 The only downside was...The Rodeway Inn was brilliant for us.  I couldn't have expected a better place to go for the pittence I paid.  And even then, I expected far worse than what we got.The reception staff were brilliant, and very helpful.  They would allow you tp use their iternet facilities behind the desk whenever needed to arrange flights/buses/Facebook etc, and the young gentleman Van was truly hilarious, and we're still in touch with him.The bathroom was very small, and you could pretty much wash your hair and sit on the toilet at the same time, but it was fine for what we needed, and there was plenty of hot water and towels.  The sink area was huge with a big mirror, and well-lit, not that you could do your makeup to any effect in the heat!  The air conditioning may have been a little noisy, but it was very well-received.  I think we would have melted without it.The pool wasn't open when we arrived, but after a great deal of bullying the manager (Santiago) into getting it sorted, our lovely receptionist Van had gotten it opened by our second day.  It's a small pool, but it's never busy, and the most we shared it with were two quiet girls.  There are ice-creams and drinks on sale all day, too, so it was nice to just relax.  It's a total suntrap and perfect for a tan.The only downside was the breakfast option, as it was very basic and only included a few pastries and coffee/tea.  However, the staff were always at hand to recommend places to eat and hand out take-away menus, and across the road is a fantastic Chinese all-you-can-eat, which was really nice.  Failing that, there's a Wendy's next door!Also, another disappointment is the location.  Arlington offers very little in the way of public transprt so you really do need to get cabs unless you're driving.  There's an Avis car hire next to the aforementioned Chinese, so it isn't really a hardship.  Six Flags Over Texas is visible from the rooms, and isn't that far a walk.  It's more a little nerve-wracking walking alongside the freeway!  Oh, and after a full day at the theme park, don't expect to have enough energy to walk it back again!  The Greyhound bus station isn't that far away either, maybe a ten-minute drive?  But then, you can't blame the hotel for public transport.A little way down the road (about 3mins at my slow pace) is a garage offering plenty of food, drink, cigarettes etc, and there are ATMs everywhere.  Not far from the garage is a divine little restaurant called Saltgrass which serves the best steaks in Texas, I'm sure of it.  The staff were excellent there, too.  If you decide to head little further out into the entertainment district there's plenty to do, but alas, we only dragged ourselves there late on, and simply headed to Sherlock's Bar for a good few cold beers.As a side note - Sherlocks is an English-themed bar, and I did not have high hopes!  I hate English bars.  However, this place is FANTASTIC.  I highly recommend it.  It is a little strange that the patio is non-smoking, and inside is smoking, but as a pair of chimmneys, it suit us brilliantly :)  They have a big selection of live entertainment on, and karaoke was pretty amusing.  They have a brilliant choice of food and drinks, and everything we had (bar a few badly-chosen cocktails) tasted wonderful.  IOf you want to have a night out, but don't like crawling bars, stay in Sherlocks, if you DO like crawling, there's a TGI Fridays, Hooters, and more across the concourse, with shops and restaurants dotted around in easy reach.All in all, the Rodeway Inn was in a good location, really, it's just that Arlington itself is a bit spartan.  The staff were brilliant, the pool was much needed, and the rooms were lovely and clean.  We loved it, and would definitely go back.  We just wouldn't get a taxi from the airport unless they knew where they were going, as it is situated on a little service road that nobody knows about.  If you go, ask for them to come off at Lamar Blvd!More</t>
   </si>
   <si>
-    <t>Resque</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d296530-r50725886-Nite_Star_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -590,7 +755,40 @@
     <t>December 2009</t>
   </si>
   <si>
-    <t>disneyprincess1</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d296530-r43417440-Nite_Star_Inn_Suites-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>43417440</t>
+  </si>
+  <si>
+    <t>09/21/2009</t>
+  </si>
+  <si>
+    <t>Schlocky.</t>
+  </si>
+  <si>
+    <t>We stayed here, in room # 105, for the Cowboys game last night.  I feel a little stupid because I booked this room w/out the use of Trip Advisor.  There are so many other hotels w/better ratings and comparable rates, that I feel like I could have done so much better.  But it was for one night, just needed a place to sleep, so when keeping that in perspective, it wasn't THAT horrible.  The place is old and outdated.  The room needed paint.  The tub didn't drain properly.  But there were no bugs, so that a plus, right?  We also spent most of the night listening to the people up above us walk across their room.  Loudly.Won't be staying here again.  Oh, one more thing.  The Indian dude at the front desk charged my credit card upon check-in.  When I told him that I intended to actually pay for the room using another card, he just looked at me and said "Oh, sorry."  Whatever.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2009</t>
+  </si>
+  <si>
+    <t>We stayed here, in room # 105, for the Cowboys game last night.  I feel a little stupid because I booked this room w/out the use of Trip Advisor.  There are so many other hotels w/better ratings and comparable rates, that I feel like I could have done so much better.  But it was for one night, just needed a place to sleep, so when keeping that in perspective, it wasn't THAT horrible.  The place is old and outdated.  The room needed paint.  The tub didn't drain properly.  But there were no bugs, so that a plus, right?  We also spent most of the night listening to the people up above us walk across their room.  Loudly.Won't be staying here again.  Oh, one more thing.  The Indian dude at the front desk charged my credit card upon check-in.  When I told him that I intended to actually pay for the room using another card, he just looked at me and said "Oh, sorry."  Whatever.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d296530-r39803160-Nite_Star_Inn_Suites-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>39803160</t>
+  </si>
+  <si>
+    <t>09/04/2009</t>
+  </si>
+  <si>
+    <t>Horrible</t>
+  </si>
+  <si>
+    <t>I would not recommend anyone to stay here. It is a great location for Six Flags, but that is it!!!  No working refrigerator but replaced it with another one and a broken microwave,  Bathroom stinks had to buy some clorex to clean it. So noisy throughout the night kids running in rooms above me could not sleep. When we stopped at Wendy's down the street and I was told to stay in the room because prostitutes hang out there and it is not a safe area!!! It needs major renovating don't let the pictures fool you because it does not look like that.  Never Again will I  stay HERE!!!</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d296530-r32714631-Nite_Star_Inn_Suites-Arlington_Texas.html</t>
@@ -609,9 +807,6 @@
   </si>
   <si>
     <t>May 2009</t>
-  </si>
-  <si>
-    <t>silversprings76</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d296530-r23410420-Nite_Star_Inn_Suites-Arlington_Texas.html</t>
@@ -637,9 +832,6 @@
 We left...I am writing this in hopes it will prevent anybody else from having a experience as we did. Upon traveling to our new duty station(military family) we decided to stop at rodeway inn in arlington texas , as we always usually choose choice hotels when possible. BIG MISTAKE!  The night manager who was foreign was on the phone talking and could care less about hanging up so he could check me in, upon arriving in first of 3 rooms that night i saw a roach crawling into the microwave back area, then one by fridge. I go back and tell him and ask for another room, he sends me directly upstairs (when we had small kids and rest of hotel was empty) and gives us a room that in the sink was what appeared to be backwash from the drain that was DISGUSTING! Last room he issues us is semi ok but did find a small roach crawling on carpet which i promptly had to step on, it appeared to be a handicap room and was probably used less and the only available room that was not clean. I literally cringed as i lay down in the bed and prayed that i could just mke it through the night. The lobby in the morning was locked when it should have been open for cont breakfast. Manager finally shows up and looks at me like "what do you want"?We left ate at mcdonalds across the way and was jut flat out horrified at what we just had to endure. This is a place that is not worthy of the rodeway inn name or choice hotels!!!More</t>
   </si>
   <si>
-    <t>Mama_Cita_72</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d296530-r15016058-Nite_Star_Inn_Suites-Arlington_Texas.html</t>
   </si>
   <si>
@@ -661,7 +853,37 @@
     <t>THIS WAS THE WORST HOTEL I HAVE EVER STAYED IN. THERE WAS A ROACH COMING OUT OF THE MICROWAVE VENT, THE CHAIN ON THE DOOR WAS NO LONGER THERE,spiders were in the tub, and 1 crawling on the wall, spider webs were behind the door. The beds were so uncomfortable! I kept checking my phone for the time to see if it was time to get up because I couldnt sleep. The indoor pool DOES NOT EXIST! When I called the desk they wouldnt even answer the phone. If you need a place by six flags and reasonable do Ranger Hotel, Every other hotel there was nice, but Ranger is right avross the street from 6-flags, and reasonable. I even pulled a desk infront of the front door because it didnt feel safe without a lock!More</t>
   </si>
   <si>
-    <t>A TripAdvisor Member</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d296530-r4358470-Nite_Star_Inn_Suites-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>4358470</t>
+  </si>
+  <si>
+    <t>01/16/2006</t>
+  </si>
+  <si>
+    <t>Great Location &amp; very Affordable Rates</t>
+  </si>
+  <si>
+    <t>I was in my budget, looking for a nice comfortable room near by Hilton where I was attending seminar. They offered me the $49 rates, the room with Jacuzzi. I could not resist to have it. The front desk personnel was very informative about the area.</t>
+  </si>
+  <si>
+    <t>January 2006</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d296530-r2784464-Nite_Star_Inn_Suites-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>2784464</t>
+  </si>
+  <si>
+    <t>10/24/2004</t>
+  </si>
+  <si>
+    <t>Best Deal &amp; Comfort</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel using Internet Site &amp; Rates.The hotel is refurbishing their lobby &amp; Front area.All the rooms were refurbished with good taste.For the rates &amp; Location, I am glad I chose this place.</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d296530-r2449948-Nite_Star_Inn_Suites-Arlington_Texas.html</t>
@@ -1194,232 +1416,226 @@
       <c r="A2" t="n">
         <v>58435</v>
       </c>
-      <c r="B2" t="n">
-        <v>169515</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
         <v>43</v>
       </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>44</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>45</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>46</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>47</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>48</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>49</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>50</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
         <v>51</v>
       </c>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>52</v>
-      </c>
-      <c r="O2" t="s">
-        <v>53</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
-      <c r="R2" t="n">
-        <v>1</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1</v>
-      </c>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="n">
-        <v>1</v>
-      </c>
+      <c r="U2" t="s"/>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>58435</v>
       </c>
-      <c r="B3" t="n">
-        <v>169516</v>
-      </c>
-      <c r="C3" t="s">
-        <v>54</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
         <v>55</v>
       </c>
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>56</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>57</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>58</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
         <v>59</v>
       </c>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="s">
-        <v>60</v>
-      </c>
       <c r="O3" t="s">
-        <v>61</v>
-      </c>
-      <c r="P3" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="P3" t="n">
+        <v>5</v>
+      </c>
       <c r="Q3" t="s"/>
       <c r="R3" t="s"/>
-      <c r="S3" t="s"/>
+      <c r="S3" t="n">
+        <v>5</v>
+      </c>
       <c r="T3" t="s"/>
-      <c r="U3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>58435</v>
       </c>
-      <c r="B4" t="n">
-        <v>169517</v>
-      </c>
-      <c r="C4" t="s">
-        <v>62</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" t="s">
         <v>63</v>
       </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="L4" t="s">
         <v>64</v>
       </c>
-      <c r="J4" t="s">
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
         <v>65</v>
       </c>
-      <c r="K4" t="s">
-        <v>66</v>
-      </c>
-      <c r="L4" t="s">
-        <v>67</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="s"/>
-      <c r="O4" t="s"/>
+      <c r="O4" t="s">
+        <v>52</v>
+      </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
-      <c r="R4" t="s"/>
-      <c r="S4" t="s"/>
+      <c r="R4" t="n">
+        <v>1</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1</v>
+      </c>
       <c r="T4" t="s"/>
-      <c r="U4" t="s"/>
+      <c r="U4" t="n">
+        <v>1</v>
+      </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>58435</v>
       </c>
-      <c r="B5" t="n">
-        <v>169518</v>
-      </c>
-      <c r="C5" t="s">
-        <v>69</v>
-      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>67</v>
+      </c>
+      <c r="J5" t="s">
+        <v>68</v>
+      </c>
+      <c r="K5" t="s">
+        <v>69</v>
+      </c>
+      <c r="L5" t="s">
         <v>70</v>
       </c>
-      <c r="G5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
         <v>71</v>
       </c>
-      <c r="J5" t="s">
+      <c r="O5" t="s">
         <v>72</v>
-      </c>
-      <c r="K5" t="s">
-        <v>73</v>
-      </c>
-      <c r="L5" t="s">
-        <v>74</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="s">
-        <v>75</v>
-      </c>
-      <c r="O5" t="s">
-        <v>61</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1433,55 +1649,47 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>58435</v>
       </c>
-      <c r="B6" t="n">
-        <v>169519</v>
-      </c>
-      <c r="C6" t="s">
-        <v>77</v>
-      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
         <v>46</v>
       </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
       <c r="I6" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="J6" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="K6" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="L6" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
-      <c r="N6" t="s">
-        <v>83</v>
-      </c>
-      <c r="O6" t="s">
-        <v>84</v>
-      </c>
+      <c r="N6" t="s"/>
+      <c r="O6" t="s"/>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
       <c r="R6" t="s"/>
@@ -1494,390 +1702,352 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>58435</v>
       </c>
-      <c r="B7" t="n">
-        <v>169520</v>
-      </c>
-      <c r="C7" t="s">
-        <v>85</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
         <v>46</v>
       </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
       <c r="I7" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="J7" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="K7" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="L7" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="M7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="O7" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
-      <c r="R7" t="s"/>
+      <c r="R7" t="n">
+        <v>5</v>
+      </c>
       <c r="S7" t="s"/>
       <c r="T7" t="s"/>
-      <c r="U7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>58435</v>
       </c>
-      <c r="B8" t="n">
-        <v>48447</v>
-      </c>
-      <c r="C8" t="s">
-        <v>94</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
         <v>46</v>
       </c>
-      <c r="H8" t="s">
-        <v>47</v>
-      </c>
       <c r="I8" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="J8" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="K8" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="L8" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="M8" t="n">
-        <v>2</v>
-      </c>
-      <c r="N8" t="s"/>
-      <c r="O8" t="s"/>
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>91</v>
+      </c>
+      <c r="O8" t="s">
+        <v>52</v>
+      </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
-      <c r="R8" t="s"/>
-      <c r="S8" t="s"/>
+      <c r="R8" t="n">
+        <v>1</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1</v>
+      </c>
       <c r="T8" t="s"/>
-      <c r="U8" t="s"/>
+      <c r="U8" t="n">
+        <v>1</v>
+      </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>58435</v>
       </c>
-      <c r="B9" t="n">
-        <v>3442</v>
-      </c>
-      <c r="C9" t="s">
-        <v>101</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
         <v>46</v>
       </c>
-      <c r="H9" t="s">
-        <v>47</v>
-      </c>
       <c r="I9" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="J9" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="K9" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="L9" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="O9" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
-      <c r="R9" t="n">
-        <v>1</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1</v>
-      </c>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
       <c r="T9" t="s"/>
-      <c r="U9" t="n">
-        <v>1</v>
-      </c>
+      <c r="U9" t="s"/>
       <c r="V9" t="n">
         <v>0</v>
       </c>
-      <c r="W9" t="s">
-        <v>108</v>
-      </c>
-      <c r="X9" t="s">
-        <v>109</v>
-      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>58435</v>
       </c>
-      <c r="B10" t="n">
-        <v>3896</v>
-      </c>
-      <c r="C10" t="s">
-        <v>111</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
         <v>46</v>
       </c>
-      <c r="H10" t="s">
-        <v>47</v>
-      </c>
       <c r="I10" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="J10" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="K10" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="L10" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="M10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="O10" t="s">
-        <v>92</v>
-      </c>
-      <c r="P10" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>3</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
       <c r="R10" t="s"/>
       <c r="S10" t="s"/>
       <c r="T10" t="s"/>
-      <c r="U10" t="n">
-        <v>3</v>
-      </c>
+      <c r="U10" t="s"/>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>58435</v>
       </c>
-      <c r="B11" t="n">
-        <v>169521</v>
-      </c>
-      <c r="C11" t="s">
-        <v>119</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
         <v>46</v>
       </c>
-      <c r="H11" t="s">
-        <v>47</v>
-      </c>
       <c r="I11" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="J11" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="K11" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="L11" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="M11" t="n">
-        <v>4</v>
-      </c>
-      <c r="N11" t="s"/>
-      <c r="O11" t="s"/>
-      <c r="P11" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>4</v>
-      </c>
-      <c r="R11" t="n">
-        <v>5</v>
-      </c>
-      <c r="S11" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="N11" t="s">
+        <v>111</v>
+      </c>
+      <c r="O11" t="s">
+        <v>85</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
       <c r="T11" t="s"/>
-      <c r="U11" t="n">
-        <v>5</v>
-      </c>
+      <c r="U11" t="s"/>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>58435</v>
       </c>
-      <c r="B12" t="n">
-        <v>169522</v>
-      </c>
-      <c r="C12" t="s">
-        <v>125</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
         <v>46</v>
       </c>
-      <c r="H12" t="s">
-        <v>47</v>
-      </c>
       <c r="I12" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="J12" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="K12" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="L12" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="O12" t="s">
-        <v>84</v>
-      </c>
-      <c r="P12" t="n">
-        <v>1</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P12" t="s"/>
       <c r="Q12" t="n">
-        <v>1</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1</v>
-      </c>
-      <c r="S12" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
       <c r="T12" t="s"/>
       <c r="U12" t="n">
         <v>3</v>
@@ -1885,219 +2055,171 @@
       <c r="V12" t="n">
         <v>0</v>
       </c>
-      <c r="W12" t="s">
-        <v>132</v>
-      </c>
-      <c r="X12" t="s">
-        <v>133</v>
-      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>58435</v>
       </c>
-      <c r="B13" t="n">
-        <v>15588</v>
-      </c>
-      <c r="C13" t="s">
-        <v>135</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
         <v>46</v>
       </c>
-      <c r="H13" t="s">
-        <v>47</v>
-      </c>
       <c r="I13" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="J13" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="K13" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="L13" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="M13" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="O13" t="s">
-        <v>61</v>
-      </c>
-      <c r="P13" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>4</v>
-      </c>
-      <c r="R13" t="n">
-        <v>3</v>
-      </c>
-      <c r="S13" t="n">
-        <v>5</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
       <c r="T13" t="s"/>
-      <c r="U13" t="n">
-        <v>5</v>
-      </c>
+      <c r="U13" t="s"/>
       <c r="V13" t="n">
         <v>0</v>
       </c>
-      <c r="W13" t="s">
-        <v>132</v>
-      </c>
-      <c r="X13" t="s">
-        <v>133</v>
-      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>58435</v>
       </c>
-      <c r="B14" t="n">
-        <v>104005</v>
-      </c>
-      <c r="C14" t="s">
-        <v>143</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
         <v>46</v>
       </c>
-      <c r="H14" t="s">
-        <v>47</v>
-      </c>
       <c r="I14" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="J14" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="K14" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="L14" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="M14" t="n">
         <v>2</v>
       </c>
-      <c r="N14" t="s">
-        <v>149</v>
-      </c>
-      <c r="O14" t="s">
-        <v>53</v>
-      </c>
-      <c r="P14" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>2</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1</v>
-      </c>
-      <c r="S14" t="n">
-        <v>3</v>
-      </c>
+      <c r="N14" t="s"/>
+      <c r="O14" t="s"/>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
       <c r="T14" t="s"/>
-      <c r="U14" t="n">
-        <v>2</v>
-      </c>
+      <c r="U14" t="s"/>
       <c r="V14" t="n">
         <v>0</v>
       </c>
-      <c r="W14" t="s">
-        <v>150</v>
-      </c>
-      <c r="X14" t="s">
-        <v>151</v>
-      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>152</v>
+        <v>130</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>58435</v>
       </c>
-      <c r="B15" t="n">
-        <v>169523</v>
-      </c>
-      <c r="C15" t="s">
-        <v>153</v>
-      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
         <v>46</v>
       </c>
-      <c r="H15" t="s">
-        <v>47</v>
-      </c>
       <c r="I15" t="s">
-        <v>155</v>
+        <v>132</v>
       </c>
       <c r="J15" t="s">
-        <v>156</v>
+        <v>133</v>
       </c>
       <c r="K15" t="s">
-        <v>157</v>
+        <v>134</v>
       </c>
       <c r="L15" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
-      <c r="N15" t="s"/>
-      <c r="O15" t="s"/>
-      <c r="P15" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>2</v>
-      </c>
+      <c r="N15" t="s">
+        <v>136</v>
+      </c>
+      <c r="O15" t="s">
+        <v>52</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
       <c r="R15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T15" t="s"/>
       <c r="U15" t="n">
@@ -2107,73 +2229,65 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="X15" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="Y15" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>58435</v>
       </c>
-      <c r="B16" t="n">
-        <v>1287</v>
-      </c>
-      <c r="C16" t="s">
-        <v>160</v>
-      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
       <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
         <v>46</v>
       </c>
-      <c r="H16" t="s">
-        <v>47</v>
-      </c>
       <c r="I16" t="s">
-        <v>162</v>
+        <v>141</v>
       </c>
       <c r="J16" t="s">
-        <v>163</v>
+        <v>142</v>
       </c>
       <c r="K16" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="L16" t="s">
-        <v>165</v>
+        <v>144</v>
       </c>
       <c r="M16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N16" t="s">
-        <v>166</v>
+        <v>145</v>
       </c>
       <c r="O16" t="s">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="P16" t="n">
         <v>3</v>
       </c>
       <c r="Q16" t="n">
-        <v>2</v>
-      </c>
-      <c r="R16" t="n">
-        <v>4</v>
-      </c>
-      <c r="S16" t="n">
-        <v>2</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
       <c r="T16" t="s"/>
       <c r="U16" t="n">
         <v>3</v>
@@ -2184,70 +2298,62 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>58435</v>
       </c>
-      <c r="B17" t="n">
-        <v>169524</v>
-      </c>
-      <c r="C17" t="s">
-        <v>167</v>
-      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
       <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
         <v>46</v>
       </c>
-      <c r="H17" t="s">
-        <v>47</v>
-      </c>
       <c r="I17" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
       <c r="J17" t="s">
-        <v>170</v>
+        <v>149</v>
       </c>
       <c r="K17" t="s">
-        <v>171</v>
+        <v>150</v>
       </c>
       <c r="L17" t="s">
-        <v>172</v>
+        <v>151</v>
       </c>
       <c r="M17" t="n">
-        <v>4</v>
-      </c>
-      <c r="N17" t="s">
-        <v>173</v>
-      </c>
-      <c r="O17" t="s">
-        <v>92</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N17" t="s"/>
+      <c r="O17" t="s"/>
       <c r="P17" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q17" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R17" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S17" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T17" t="s"/>
       <c r="U17" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -2255,66 +2361,60 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>172</v>
+        <v>151</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>58435</v>
       </c>
-      <c r="B18" t="n">
-        <v>12898</v>
-      </c>
-      <c r="C18" t="s">
-        <v>174</v>
-      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F18" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
         <v>46</v>
       </c>
-      <c r="H18" t="s">
-        <v>47</v>
-      </c>
       <c r="I18" t="s">
-        <v>176</v>
+        <v>153</v>
       </c>
       <c r="J18" t="s">
-        <v>177</v>
+        <v>154</v>
       </c>
       <c r="K18" t="s">
-        <v>178</v>
+        <v>155</v>
       </c>
       <c r="L18" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="M18" t="n">
-        <v>5</v>
-      </c>
-      <c r="N18" t="s"/>
-      <c r="O18" t="s"/>
-      <c r="P18" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>5</v>
-      </c>
-      <c r="R18" t="n">
-        <v>4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N18" t="s">
+        <v>145</v>
+      </c>
+      <c r="O18" t="s">
+        <v>52</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
       <c r="S18" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T18" t="s"/>
       <c r="U18" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -2322,70 +2422,62 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>180</v>
+        <v>156</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>58435</v>
       </c>
-      <c r="B19" t="n">
-        <v>169525</v>
-      </c>
-      <c r="C19" t="s">
-        <v>181</v>
-      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F19" t="s">
-        <v>182</v>
+        <v>157</v>
       </c>
       <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
         <v>46</v>
       </c>
-      <c r="H19" t="s">
-        <v>47</v>
-      </c>
       <c r="I19" t="s">
-        <v>183</v>
+        <v>158</v>
       </c>
       <c r="J19" t="s">
-        <v>184</v>
+        <v>159</v>
       </c>
       <c r="K19" t="s">
-        <v>185</v>
+        <v>160</v>
       </c>
       <c r="L19" t="s">
-        <v>186</v>
+        <v>161</v>
       </c>
       <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="s">
-        <v>187</v>
-      </c>
-      <c r="O19" t="s">
-        <v>61</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N19" t="s"/>
+      <c r="O19" t="s"/>
       <c r="P19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S19" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T19" t="s"/>
       <c r="U19" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2393,54 +2485,50 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>186</v>
+        <v>161</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>58435</v>
       </c>
-      <c r="B20" t="n">
-        <v>169526</v>
-      </c>
-      <c r="C20" t="s">
-        <v>188</v>
-      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F20" t="s">
-        <v>189</v>
+        <v>162</v>
       </c>
       <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
         <v>46</v>
       </c>
-      <c r="H20" t="s">
-        <v>47</v>
-      </c>
       <c r="I20" t="s">
-        <v>190</v>
+        <v>163</v>
       </c>
       <c r="J20" t="s">
-        <v>191</v>
+        <v>164</v>
       </c>
       <c r="K20" t="s">
-        <v>192</v>
+        <v>165</v>
       </c>
       <c r="L20" t="s">
-        <v>193</v>
+        <v>166</v>
       </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
       <c r="N20" t="s">
-        <v>194</v>
+        <v>167</v>
       </c>
       <c r="O20" t="s">
-        <v>61</v>
+        <v>105</v>
       </c>
       <c r="P20" t="n">
         <v>1</v>
@@ -2449,219 +2537,1269 @@
         <v>1</v>
       </c>
       <c r="R20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S20" t="n">
         <v>1</v>
       </c>
       <c r="T20" t="s"/>
       <c r="U20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
-      <c r="W20" t="s"/>
-      <c r="X20" t="s"/>
+      <c r="W20" t="s">
+        <v>168</v>
+      </c>
+      <c r="X20" t="s">
+        <v>169</v>
+      </c>
       <c r="Y20" t="s">
-        <v>193</v>
+        <v>170</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>58435</v>
       </c>
-      <c r="B21" t="n">
-        <v>169527</v>
-      </c>
-      <c r="C21" t="s">
-        <v>195</v>
-      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F21" t="s">
-        <v>196</v>
+        <v>171</v>
       </c>
       <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
         <v>46</v>
       </c>
-      <c r="H21" t="s">
-        <v>47</v>
-      </c>
       <c r="I21" t="s">
-        <v>197</v>
+        <v>172</v>
       </c>
       <c r="J21" t="s">
-        <v>198</v>
+        <v>173</v>
       </c>
       <c r="K21" t="s">
-        <v>199</v>
+        <v>174</v>
       </c>
       <c r="L21" t="s">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="M21" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="O21" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="P21" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q21" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R21" t="n">
         <v>3</v>
       </c>
       <c r="S21" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T21" t="s"/>
       <c r="U21" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
-      <c r="W21" t="s"/>
-      <c r="X21" t="s"/>
+      <c r="W21" t="s">
+        <v>168</v>
+      </c>
+      <c r="X21" t="s">
+        <v>169</v>
+      </c>
       <c r="Y21" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>58435</v>
       </c>
-      <c r="B22" t="n">
-        <v>169528</v>
-      </c>
-      <c r="C22" t="s">
-        <v>203</v>
-      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F22" t="s">
-        <v>204</v>
+        <v>178</v>
       </c>
       <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
         <v>46</v>
       </c>
-      <c r="H22" t="s">
-        <v>47</v>
-      </c>
       <c r="I22" t="s">
-        <v>205</v>
+        <v>179</v>
       </c>
       <c r="J22" t="s">
-        <v>206</v>
+        <v>180</v>
       </c>
       <c r="K22" t="s">
-        <v>207</v>
+        <v>181</v>
       </c>
       <c r="L22" t="s">
-        <v>208</v>
+        <v>182</v>
       </c>
       <c r="M22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N22" t="s">
-        <v>209</v>
+        <v>183</v>
       </c>
       <c r="O22" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="P22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R22" t="n">
+        <v>4</v>
+      </c>
+      <c r="S22" t="n">
         <v>2</v>
       </c>
-      <c r="S22" t="n">
-        <v>1</v>
-      </c>
       <c r="T22" t="s"/>
-      <c r="U22" t="s"/>
+      <c r="U22" t="n">
+        <v>2</v>
+      </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
-      <c r="W22" t="s"/>
-      <c r="X22" t="s"/>
+      <c r="W22" t="s">
+        <v>184</v>
+      </c>
+      <c r="X22" t="s">
+        <v>185</v>
+      </c>
       <c r="Y22" t="s">
-        <v>210</v>
+        <v>186</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>58435</v>
       </c>
-      <c r="B23" t="n">
-        <v>7</v>
-      </c>
-      <c r="C23" t="s">
-        <v>211</v>
-      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F23" t="s">
-        <v>212</v>
+        <v>187</v>
       </c>
       <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
         <v>46</v>
       </c>
-      <c r="H23" t="s">
-        <v>47</v>
-      </c>
       <c r="I23" t="s">
-        <v>213</v>
+        <v>188</v>
       </c>
       <c r="J23" t="s">
-        <v>214</v>
+        <v>189</v>
       </c>
       <c r="K23" t="s">
-        <v>215</v>
+        <v>190</v>
       </c>
       <c r="L23" t="s">
-        <v>216</v>
+        <v>191</v>
       </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
-      <c r="N23" t="s"/>
-      <c r="O23" t="s"/>
-      <c r="P23" t="s"/>
-      <c r="Q23" t="s"/>
-      <c r="R23" t="s"/>
-      <c r="S23" t="s"/>
+      <c r="N23" t="s">
+        <v>192</v>
+      </c>
+      <c r="O23" t="s">
+        <v>52</v>
+      </c>
+      <c r="P23" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1</v>
+      </c>
+      <c r="R23" t="n">
+        <v>3</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1</v>
+      </c>
       <c r="T23" t="s"/>
-      <c r="U23" t="s"/>
+      <c r="U23" t="n">
+        <v>1</v>
+      </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
-      <c r="W23" t="s"/>
-      <c r="X23" t="s"/>
+      <c r="W23" t="s">
+        <v>184</v>
+      </c>
+      <c r="X23" t="s">
+        <v>185</v>
+      </c>
       <c r="Y23" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>58435</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" t="s">
+        <v>194</v>
+      </c>
+      <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" t="s">
+        <v>195</v>
+      </c>
+      <c r="J24" t="s">
+        <v>196</v>
+      </c>
+      <c r="K24" t="s">
+        <v>197</v>
+      </c>
+      <c r="L24" t="s">
+        <v>198</v>
+      </c>
+      <c r="M24" t="n">
+        <v>2</v>
+      </c>
+      <c r="N24" t="s">
+        <v>199</v>
+      </c>
+      <c r="O24" t="s">
+        <v>52</v>
+      </c>
+      <c r="P24" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>2</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1</v>
+      </c>
+      <c r="S24" t="n">
+        <v>3</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>2</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>184</v>
+      </c>
+      <c r="X24" t="s">
+        <v>185</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>58435</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" t="s">
+        <v>201</v>
+      </c>
+      <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" t="s">
+        <v>202</v>
+      </c>
+      <c r="J25" t="s">
+        <v>203</v>
+      </c>
+      <c r="K25" t="s">
+        <v>204</v>
+      </c>
+      <c r="L25" t="s">
+        <v>205</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1</v>
+      </c>
+      <c r="N25" t="s"/>
+      <c r="O25" t="s"/>
+      <c r="P25" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>2</v>
+      </c>
+      <c r="R25" t="n">
+        <v>3</v>
+      </c>
+      <c r="S25" t="n">
+        <v>2</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>1</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>184</v>
+      </c>
+      <c r="X25" t="s">
+        <v>185</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>58435</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" t="s">
+        <v>207</v>
+      </c>
+      <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s">
+        <v>208</v>
+      </c>
+      <c r="J26" t="s">
+        <v>209</v>
+      </c>
+      <c r="K26" t="s">
+        <v>210</v>
+      </c>
+      <c r="L26" t="s">
+        <v>211</v>
+      </c>
+      <c r="M26" t="n">
+        <v>2</v>
+      </c>
+      <c r="N26" t="s">
+        <v>212</v>
+      </c>
+      <c r="O26" t="s">
+        <v>52</v>
+      </c>
+      <c r="P26" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>2</v>
+      </c>
+      <c r="R26" t="n">
+        <v>4</v>
+      </c>
+      <c r="S26" t="n">
+        <v>2</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>3</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>58435</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" t="s">
+        <v>213</v>
+      </c>
+      <c r="G27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" t="s">
+        <v>214</v>
+      </c>
+      <c r="J27" t="s">
+        <v>215</v>
+      </c>
+      <c r="K27" t="s">
+        <v>216</v>
+      </c>
+      <c r="L27" t="s">
         <v>217</v>
+      </c>
+      <c r="M27" t="n">
+        <v>2</v>
+      </c>
+      <c r="N27" t="s">
+        <v>218</v>
+      </c>
+      <c r="O27" t="s">
+        <v>52</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>58435</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" t="s">
+        <v>219</v>
+      </c>
+      <c r="G28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" t="s">
+        <v>220</v>
+      </c>
+      <c r="J28" t="s">
+        <v>221</v>
+      </c>
+      <c r="K28" t="s">
+        <v>222</v>
+      </c>
+      <c r="L28" t="s">
+        <v>223</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1</v>
+      </c>
+      <c r="N28" t="s">
+        <v>224</v>
+      </c>
+      <c r="O28" t="s">
+        <v>72</v>
+      </c>
+      <c r="P28" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>3</v>
+      </c>
+      <c r="R28" t="n">
+        <v>5</v>
+      </c>
+      <c r="S28" t="n">
+        <v>2</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>1</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>58435</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" t="s">
+        <v>225</v>
+      </c>
+      <c r="G29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" t="s">
+        <v>226</v>
+      </c>
+      <c r="J29" t="s">
+        <v>227</v>
+      </c>
+      <c r="K29" t="s">
+        <v>228</v>
+      </c>
+      <c r="L29" t="s">
+        <v>229</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s">
+        <v>230</v>
+      </c>
+      <c r="O29" t="s">
+        <v>85</v>
+      </c>
+      <c r="P29" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>4</v>
+      </c>
+      <c r="R29" t="n">
+        <v>5</v>
+      </c>
+      <c r="S29" t="n">
+        <v>4</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>4</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>58435</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" t="s">
+        <v>231</v>
+      </c>
+      <c r="G30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" t="s">
+        <v>232</v>
+      </c>
+      <c r="J30" t="s">
+        <v>233</v>
+      </c>
+      <c r="K30" t="s">
+        <v>234</v>
+      </c>
+      <c r="L30" t="s">
+        <v>235</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s"/>
+      <c r="O30" t="s"/>
+      <c r="P30" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>5</v>
+      </c>
+      <c r="R30" t="n">
+        <v>4</v>
+      </c>
+      <c r="S30" t="n">
+        <v>5</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>4</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>58435</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" t="s">
+        <v>237</v>
+      </c>
+      <c r="G31" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" t="s">
+        <v>46</v>
+      </c>
+      <c r="I31" t="s">
+        <v>238</v>
+      </c>
+      <c r="J31" t="s">
+        <v>239</v>
+      </c>
+      <c r="K31" t="s">
+        <v>240</v>
+      </c>
+      <c r="L31" t="s">
+        <v>241</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1</v>
+      </c>
+      <c r="N31" t="s">
+        <v>242</v>
+      </c>
+      <c r="O31" t="s">
+        <v>72</v>
+      </c>
+      <c r="P31" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>2</v>
+      </c>
+      <c r="R31" t="n">
+        <v>4</v>
+      </c>
+      <c r="S31" t="n">
+        <v>1</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>2</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>58435</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" t="s">
+        <v>243</v>
+      </c>
+      <c r="G32" t="s">
+        <v>45</v>
+      </c>
+      <c r="H32" t="s">
+        <v>46</v>
+      </c>
+      <c r="I32" t="s">
+        <v>244</v>
+      </c>
+      <c r="J32" t="s">
+        <v>245</v>
+      </c>
+      <c r="K32" t="s">
+        <v>246</v>
+      </c>
+      <c r="L32" t="s">
+        <v>247</v>
+      </c>
+      <c r="M32" t="n">
+        <v>2</v>
+      </c>
+      <c r="N32" t="s">
+        <v>248</v>
+      </c>
+      <c r="O32" t="s">
+        <v>72</v>
+      </c>
+      <c r="P32" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>2</v>
+      </c>
+      <c r="R32" t="n">
+        <v>3</v>
+      </c>
+      <c r="S32" t="n">
+        <v>2</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>2</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>58435</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33" t="s">
+        <v>250</v>
+      </c>
+      <c r="G33" t="s">
+        <v>45</v>
+      </c>
+      <c r="H33" t="s">
+        <v>46</v>
+      </c>
+      <c r="I33" t="s">
+        <v>251</v>
+      </c>
+      <c r="J33" t="s">
+        <v>252</v>
+      </c>
+      <c r="K33" t="s">
+        <v>253</v>
+      </c>
+      <c r="L33" t="s">
+        <v>254</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1</v>
+      </c>
+      <c r="N33" t="s">
+        <v>248</v>
+      </c>
+      <c r="O33" t="s">
+        <v>52</v>
+      </c>
+      <c r="P33" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>1</v>
+      </c>
+      <c r="R33" t="n">
+        <v>4</v>
+      </c>
+      <c r="S33" t="n">
+        <v>1</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>1</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>58435</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>43</v>
+      </c>
+      <c r="F34" t="s">
+        <v>255</v>
+      </c>
+      <c r="G34" t="s">
+        <v>45</v>
+      </c>
+      <c r="H34" t="s">
+        <v>46</v>
+      </c>
+      <c r="I34" t="s">
+        <v>256</v>
+      </c>
+      <c r="J34" t="s">
+        <v>257</v>
+      </c>
+      <c r="K34" t="s">
+        <v>258</v>
+      </c>
+      <c r="L34" t="s">
+        <v>259</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1</v>
+      </c>
+      <c r="N34" t="s">
+        <v>260</v>
+      </c>
+      <c r="O34" t="s">
+        <v>72</v>
+      </c>
+      <c r="P34" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>1</v>
+      </c>
+      <c r="R34" t="n">
+        <v>2</v>
+      </c>
+      <c r="S34" t="n">
+        <v>1</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>1</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>58435</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>43</v>
+      </c>
+      <c r="F35" t="s">
+        <v>261</v>
+      </c>
+      <c r="G35" t="s">
+        <v>45</v>
+      </c>
+      <c r="H35" t="s">
+        <v>46</v>
+      </c>
+      <c r="I35" t="s">
+        <v>262</v>
+      </c>
+      <c r="J35" t="s">
+        <v>263</v>
+      </c>
+      <c r="K35" t="s">
+        <v>264</v>
+      </c>
+      <c r="L35" t="s">
+        <v>265</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1</v>
+      </c>
+      <c r="N35" t="s">
+        <v>266</v>
+      </c>
+      <c r="O35" t="s">
+        <v>52</v>
+      </c>
+      <c r="P35" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>1</v>
+      </c>
+      <c r="R35" t="n">
+        <v>3</v>
+      </c>
+      <c r="S35" t="n">
+        <v>1</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>1</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>58435</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>43</v>
+      </c>
+      <c r="F36" t="s">
+        <v>268</v>
+      </c>
+      <c r="G36" t="s">
+        <v>45</v>
+      </c>
+      <c r="H36" t="s">
+        <v>46</v>
+      </c>
+      <c r="I36" t="s">
+        <v>269</v>
+      </c>
+      <c r="J36" t="s">
+        <v>270</v>
+      </c>
+      <c r="K36" t="s">
+        <v>271</v>
+      </c>
+      <c r="L36" t="s">
+        <v>272</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1</v>
+      </c>
+      <c r="N36" t="s">
+        <v>273</v>
+      </c>
+      <c r="O36" t="s">
+        <v>52</v>
+      </c>
+      <c r="P36" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>1</v>
+      </c>
+      <c r="R36" t="n">
+        <v>2</v>
+      </c>
+      <c r="S36" t="n">
+        <v>1</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="s"/>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>58435</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>43</v>
+      </c>
+      <c r="F37" t="s">
+        <v>275</v>
+      </c>
+      <c r="G37" t="s">
+        <v>45</v>
+      </c>
+      <c r="H37" t="s">
+        <v>46</v>
+      </c>
+      <c r="I37" t="s">
+        <v>276</v>
+      </c>
+      <c r="J37" t="s">
+        <v>277</v>
+      </c>
+      <c r="K37" t="s">
+        <v>278</v>
+      </c>
+      <c r="L37" t="s">
+        <v>279</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>280</v>
+      </c>
+      <c r="O37" t="s">
+        <v>85</v>
+      </c>
+      <c r="P37" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>5</v>
+      </c>
+      <c r="R37" t="s"/>
+      <c r="S37" t="n">
+        <v>4</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>58435</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>43</v>
+      </c>
+      <c r="F38" t="s">
+        <v>281</v>
+      </c>
+      <c r="G38" t="s">
+        <v>45</v>
+      </c>
+      <c r="H38" t="s">
+        <v>46</v>
+      </c>
+      <c r="I38" t="s">
+        <v>282</v>
+      </c>
+      <c r="J38" t="s">
+        <v>283</v>
+      </c>
+      <c r="K38" t="s">
+        <v>284</v>
+      </c>
+      <c r="L38" t="s">
+        <v>285</v>
+      </c>
+      <c r="M38" t="n">
+        <v>4</v>
+      </c>
+      <c r="N38" t="s"/>
+      <c r="O38" t="s"/>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="s"/>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>58435</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>43</v>
+      </c>
+      <c r="F39" t="s">
+        <v>286</v>
+      </c>
+      <c r="G39" t="s">
+        <v>45</v>
+      </c>
+      <c r="H39" t="s">
+        <v>46</v>
+      </c>
+      <c r="I39" t="s">
+        <v>287</v>
+      </c>
+      <c r="J39" t="s">
+        <v>288</v>
+      </c>
+      <c r="K39" t="s">
+        <v>289</v>
+      </c>
+      <c r="L39" t="s">
+        <v>290</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1</v>
+      </c>
+      <c r="N39" t="s"/>
+      <c r="O39" t="s"/>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="s"/>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>291</v>
       </c>
     </row>
   </sheetData>
